--- a/data/cci/cci-product.xlsx
+++ b/data/cci/cci-product.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2F192A-504A-F741-8460-E38FB7C433E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0ECA83B-F5D8-7646-99AD-7B7894EABA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{91A0CF99-8FE2-A549-9C98-D0B98D4852A1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="470">
   <si>
     <t>URI</t>
   </si>
@@ -917,6 +917,519 @@
   </si>
   <si>
     <t>RE_SSMI_12.5kmEASE2-SH</t>
+  </si>
+  <si>
+    <t>prod_clim</t>
+  </si>
+  <si>
+    <t>Climatology</t>
+  </si>
+  <si>
+    <t>prod_cl01A01</t>
+  </si>
+  <si>
+    <t>CL01-A01</t>
+  </si>
+  <si>
+    <t>CL01 layer from high resolution land cover for region A01 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_cl01A01Mos</t>
+  </si>
+  <si>
+    <t>CL01-A01MOSAIC</t>
+  </si>
+  <si>
+    <t>CL01 layer from high resolution land cover for region A01 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_cl01A02</t>
+  </si>
+  <si>
+    <t>CL01-A02</t>
+  </si>
+  <si>
+    <t>CL01 layer from high resolution land cover for region A02 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_cl01A02Mos</t>
+  </si>
+  <si>
+    <t>CL01-A02MOSAIC</t>
+  </si>
+  <si>
+    <t>CL01 layer from high resolution land cover for region A02 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_cl01A03</t>
+  </si>
+  <si>
+    <t>CL01-A03</t>
+  </si>
+  <si>
+    <t>CL01 layer from high resolution land cover for region A03 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_cl01A03Mos</t>
+  </si>
+  <si>
+    <t>CL01-A03MOSAIC</t>
+  </si>
+  <si>
+    <t>CL01 layer from high resolution land cover for region A03 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_CL02A01</t>
+  </si>
+  <si>
+    <t>CL02-A01</t>
+  </si>
+  <si>
+    <t>CL02 layer from high resolution land cover for region A01 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_CL02A01Mos</t>
+  </si>
+  <si>
+    <t>CL02-A01MOSAIC</t>
+  </si>
+  <si>
+    <t>CL02 layer from high resolution land cover for region A01 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_CL02A02</t>
+  </si>
+  <si>
+    <t>CL02-A02</t>
+  </si>
+  <si>
+    <t>CL02 layer from high resolution land cover for region A02 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_CL02A02Mos</t>
+  </si>
+  <si>
+    <t>CL02-A02MOSAIC</t>
+  </si>
+  <si>
+    <t>CL02 layer from high resolution land cover for region A02 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_CL02A03</t>
+  </si>
+  <si>
+    <t>CL02-A03</t>
+  </si>
+  <si>
+    <t>CL02 layer from high resolution land cover for region A03 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_CL02A03Mos</t>
+  </si>
+  <si>
+    <t>CL02-A03MOSAIC</t>
+  </si>
+  <si>
+    <t>CL02 layer from high resolution land cover for region A03 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_IQIXA01</t>
+  </si>
+  <si>
+    <t>IQIX-A01</t>
+  </si>
+  <si>
+    <t>IQIX layer from high resolution land cover for region A01 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_IQIXA01Mos</t>
+  </si>
+  <si>
+    <t>IQIX-A01MOSAIC</t>
+  </si>
+  <si>
+    <t>IQIX layer from high resolution land cover for region A01 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_IQIXA02</t>
+  </si>
+  <si>
+    <t>IQIX-A02</t>
+  </si>
+  <si>
+    <t>IQIX layer from high resolution land cover for region A02 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_IQIXA02Mos</t>
+  </si>
+  <si>
+    <t>IQIX-A02MOSAIC</t>
+  </si>
+  <si>
+    <t>IQIX layer from high resolution land cover for region A02 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_IQIXA03</t>
+  </si>
+  <si>
+    <t>IQIX-A03</t>
+  </si>
+  <si>
+    <t>IQIX layer from high resolution land cover for region A03 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_IQIXA03Mos</t>
+  </si>
+  <si>
+    <t>IQIX-A03MOSAIC</t>
+  </si>
+  <si>
+    <t>IQIX layer from high resolution land cover for region A03 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PS01A01</t>
+  </si>
+  <si>
+    <t>PS01-A01</t>
+  </si>
+  <si>
+    <t>PS01 layer from high resolution land cover for region A01 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_PS01A01Mos</t>
+  </si>
+  <si>
+    <t>PS01-A01MOSAIC</t>
+  </si>
+  <si>
+    <t>PS01 layer from high resolution land cover for region A01 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PS01A02</t>
+  </si>
+  <si>
+    <t>PS01-A02</t>
+  </si>
+  <si>
+    <t>PS01 layer from high resolution land cover for region A02 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_PS01A02Mos</t>
+  </si>
+  <si>
+    <t>PS01-A02MOSAIC</t>
+  </si>
+  <si>
+    <t>PS01 layer from high resolution land cover for region A02 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PS01A03</t>
+  </si>
+  <si>
+    <t>PS01-A03</t>
+  </si>
+  <si>
+    <t>PS01 layer from high resolution land cover for region A03 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_PS01A03Mos</t>
+  </si>
+  <si>
+    <t>PS01-A03MOSAIC</t>
+  </si>
+  <si>
+    <t>PS01 layer from high resolution land cover for region A03 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PS02A01</t>
+  </si>
+  <si>
+    <t>PS02-A01</t>
+  </si>
+  <si>
+    <t>PS02 layer from high resolution land cover for region A01 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_PS02A01Mos</t>
+  </si>
+  <si>
+    <t>PS02-A01MOSAIC</t>
+  </si>
+  <si>
+    <t>PS02 layer from high resolution land cover for region A01 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PS02A02</t>
+  </si>
+  <si>
+    <t>PS02-A02</t>
+  </si>
+  <si>
+    <t>PS02 layer from high resolution land cover for region A02 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_PS02A02Mos</t>
+  </si>
+  <si>
+    <t>PS02-A02MOSAIC</t>
+  </si>
+  <si>
+    <t>PS02 layer from high resolution land cover for region A02 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PS02A03</t>
+  </si>
+  <si>
+    <t>PS02-A03</t>
+  </si>
+  <si>
+    <t>PS02 layer from high resolution land cover for region A03 - Tiles</t>
+  </si>
+  <si>
+    <t>prod_PS02A03Mos</t>
+  </si>
+  <si>
+    <t>PS02-A03MOSAIC</t>
+  </si>
+  <si>
+    <t>PS02 layer from high resolution land cover for region A03 - Mosaics</t>
+  </si>
+  <si>
+    <t>prod_PolMerg7dayNh</t>
+  </si>
+  <si>
+    <t>POLAR-MERGED_OI_7DAY_RUNNINGMEAN_DAILY_25kmEASE2-NH</t>
+  </si>
+  <si>
+    <t>Daily 7 day running mean on a 25km EASE2 grid for the NH (salinity product)</t>
+  </si>
+  <si>
+    <t>prod_PolMerg7daySh</t>
+  </si>
+  <si>
+    <t>POLAR-MERGED_OI_7DAY_RUNNINGMEAN_DAILY_25kmEASE2-SH</t>
+  </si>
+  <si>
+    <t>Daily 7 day running mean on a 25km EASE2 grid for the SH (salinity product)</t>
+  </si>
+  <si>
+    <t>prod_GlobMerg7day</t>
+  </si>
+  <si>
+    <t>GLOBAL-MERGED_OI_7DAY_RUNNINGMEAN_DAILY_0.25deg</t>
+  </si>
+  <si>
+    <t>Daily 7 day running mean on a globl 0.25 degree grid for the SH (salinity product)</t>
+  </si>
+  <si>
+    <t>prod_GlobMergCent</t>
+  </si>
+  <si>
+    <t>GLOBAL-MERGED_OI_Monthly_CENTRED_15Day_0.25deg</t>
+  </si>
+  <si>
+    <t>Monthly running mean on a global 0.25degree grid</t>
+  </si>
+  <si>
+    <t>prod_PolMergCentNH</t>
+  </si>
+  <si>
+    <t>POLAR-MERGED_OI_Monthly_CENTRED_15Day_25kmEASE2-NH</t>
+  </si>
+  <si>
+    <t>prod_PolMergCentSH</t>
+  </si>
+  <si>
+    <t>POLAR-MERGED_OI_Monthly_CENTRED_15Day_25kmEASE2-SH</t>
+  </si>
+  <si>
+    <t>prod_AvhrMa</t>
+  </si>
+  <si>
+    <t>AVHRMA</t>
+  </si>
+  <si>
+    <t>prod_Diff</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>prod_HRLC10A01</t>
+  </si>
+  <si>
+    <t>HRLC10-A01</t>
+  </si>
+  <si>
+    <t>high resolution land cover static product for region A01</t>
+  </si>
+  <si>
+    <t>prod_HRLC10A02</t>
+  </si>
+  <si>
+    <t>HRLC10-A02</t>
+  </si>
+  <si>
+    <t>high resolution land cover static product for region A02</t>
+  </si>
+  <si>
+    <t>prod_HRLC10A03</t>
+  </si>
+  <si>
+    <t>HRLC10-A03</t>
+  </si>
+  <si>
+    <t>high resolution land cover static product for region A03</t>
+  </si>
+  <si>
+    <t>prod_HRLC30A01</t>
+  </si>
+  <si>
+    <t>HRLC30-A01</t>
+  </si>
+  <si>
+    <t>high resolution land cover historical map product for region A01</t>
+  </si>
+  <si>
+    <t>prod_HRLC30A02</t>
+  </si>
+  <si>
+    <t>HRLC30-A02</t>
+  </si>
+  <si>
+    <t>high resolution land cover historical map product for region A02</t>
+  </si>
+  <si>
+    <t>prod_HRLC30A03</t>
+  </si>
+  <si>
+    <t>HRLC30-A03</t>
+  </si>
+  <si>
+    <t>high resolution land cover historical map product for region A03</t>
+  </si>
+  <si>
+    <t>prod_HRLCC30A01</t>
+  </si>
+  <si>
+    <t>HRLCC30-A01</t>
+  </si>
+  <si>
+    <t>high resolution land cover historical change product for region A01</t>
+  </si>
+  <si>
+    <t>prod_HRLCC30A02</t>
+  </si>
+  <si>
+    <t>HRLCC30-A02</t>
+  </si>
+  <si>
+    <t>high resolution land cover historical change product for region A02</t>
+  </si>
+  <si>
+    <t>prod_HRLCC30A03</t>
+  </si>
+  <si>
+    <t>HRLCC30-A03</t>
+  </si>
+  <si>
+    <t>high resolution land cover historical change product for region A03</t>
+  </si>
+  <si>
+    <t>prod_AvhrrMetopA</t>
+  </si>
+  <si>
+    <t>AVHRR_METOPA</t>
+  </si>
+  <si>
+    <t>prod_AvhrrMetopB</t>
+  </si>
+  <si>
+    <t>AVHRR_METOPB</t>
+  </si>
+  <si>
+    <t>prod_AvhrrMetopC</t>
+  </si>
+  <si>
+    <t>AVHRR_METOPC</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa10</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA10</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa11</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA11</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa12</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA12</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa14</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA14</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa16</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA16</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa17</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA17</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa18</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA18</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa19</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA19</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa6</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA6</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa7</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA7</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa8</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA8</t>
+  </si>
+  <si>
+    <t>prod_AvhrrNoaa9</t>
+  </si>
+  <si>
+    <t>AVHRR_NOAA9</t>
+  </si>
+  <si>
+    <t>prod_AvhrrTirosN</t>
+  </si>
+  <si>
+    <t>AVHRR_TIROSN</t>
   </si>
 </sst>
 </file>
@@ -1119,31 +1632,31 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1178,26 +1691,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Accent" xfId="7" xr:uid="{ED73F636-C1DC-8D4E-AD4F-AF853EEF2D83}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{5B7C8BA4-AC84-B04A-AE8D-EE2901572F9D}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{0C9B0675-19AD-544C-A686-6C96CD2E7F01}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{E620FDA8-930B-374B-BA39-8F715DC0C8A3}"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{2512F336-722D-FE46-9313-E88B0FECBCED}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{5EE72FF2-142B-CB4E-866C-84C3082FB38B}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{F4C92598-5D0C-4746-B1C5-A03555A50485}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{3258D1DE-F5E8-124C-9782-7D38029D7641}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{5E330DCC-B706-AE41-B740-86188FCF1DAF}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{2C704D53-8CAE-0B48-96D1-624C2D9FA5B5}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{273BB4F2-B791-9C43-B9AC-72FDC0B7E1D8}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{95C104F6-BACC-1A42-85CC-ECED1F2353EE}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{FCBCCDED-1AFD-1F4B-A6A8-AC59DC4F29D2}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{5F5E2BFF-AE1B-894E-BB68-6D862EA3550B}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{57586303-232E-4945-BA4A-E2C1DE80EDB4}"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{78114397-E830-2742-A190-991C14B4A405}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{07A5B90F-BB82-ED4B-B7DE-4697EE303318}"/>
-    <cellStyle name="Result2" xfId="16" xr:uid="{6F628F74-A89B-0446-8F63-324DBFCE4834}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{BD51E99F-82AA-1940-9B4E-3EBAC3C786E2}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{2457C943-9EA3-AE42-9EDB-A83DB352EBE9}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{4A9CEE4D-D29A-D143-87D6-16A02C06E829}"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{9DBCED13-E9F5-D544-A6E1-D5CBE6B5AFE3}"/>
+    <cellStyle name="Result2" xfId="16" xr:uid="{BC7CC02A-7279-FA42-AAA1-59EDF06E55A6}"/>
+    <cellStyle name="Status" xfId="17" xr:uid="{72ACF7BF-FCFE-7B4F-8DE4-880940594427}"/>
+    <cellStyle name="Text" xfId="18" xr:uid="{15AB7E63-5363-6946-8F75-8A861AD5AE4E}"/>
+    <cellStyle name="Warning" xfId="19" xr:uid="{B1993EAE-AF2A-0B48-AADD-A8B11C596AEF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1213,16 +1726,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47425EFB-784C-BC49-9748-0D13C0410ECF}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A2:E110" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D653F8CE-0F4B-544C-A3BD-C67BBD0C247A}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A2:E110" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E110">
     <sortCondition ref="B2:B110"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{07C7BCD3-BC2F-E740-81A5-DBB93BDD7405}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{680F12BE-30F5-1943-9CD7-B0EA27D569D5}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{A6EC0E6B-63FD-134E-A44F-6D52941CE438}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{7385EB0E-B5F4-E144-A7CA-8E425041F43D}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{8BE020DA-EB03-B34B-BC31-54911AAFBD38}" name="Column5"/>
+    <tableColumn id="1" xr3:uid="{EE1F06C9-C2C0-184A-8ADB-D92D95CE2B8D}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{5AFF96B4-7C79-6B45-BE66-B8CAE8BAE5C9}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{D528D8E2-A120-3F45-BBE0-EDEF2A507D07}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{7BCBD1FE-771F-7E44-913A-5068ADCD945F}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{7849C19E-0E3C-F341-91F9-E13E0B0CF9DA}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1544,12 +2057,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB45045-58AA-094A-9E31-7A7B4107E145}">
-  <dimension ref="A1:XFD129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
+  <dimension ref="A1:AMJ193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
@@ -1557,7 +2070,7 @@
     <col min="4" max="4" width="50.5" style="2" customWidth="1"/>
     <col min="5" max="1016" width="10.6640625" style="2" customWidth="1"/>
     <col min="1017" max="1017" width="13.33203125" style="2" customWidth="1"/>
-    <col min="1018" max="1024" width="10.6640625" customWidth="1"/>
+    <col min="1018" max="1018" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4065,7 +4578,7 @@
       <c r="AMI36" s="11"/>
       <c r="AMJ36" s="11"/>
     </row>
-    <row r="37" spans="1:1024" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
@@ -4134,8 +4647,961 @@
       <c r="BJ37" s="9"/>
       <c r="BK37" s="9"/>
       <c r="BL37" s="9"/>
-    </row>
-    <row r="38" spans="1:1024" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="BM37"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37"/>
+      <c r="BW37"/>
+      <c r="BX37"/>
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+      <c r="CB37"/>
+      <c r="CC37"/>
+      <c r="CD37"/>
+      <c r="CE37"/>
+      <c r="CF37"/>
+      <c r="CG37"/>
+      <c r="CH37"/>
+      <c r="CI37"/>
+      <c r="CJ37"/>
+      <c r="CK37"/>
+      <c r="CL37"/>
+      <c r="CM37"/>
+      <c r="CN37"/>
+      <c r="CO37"/>
+      <c r="CP37"/>
+      <c r="CQ37"/>
+      <c r="CR37"/>
+      <c r="CS37"/>
+      <c r="CT37"/>
+      <c r="CU37"/>
+      <c r="CV37"/>
+      <c r="CW37"/>
+      <c r="CX37"/>
+      <c r="CY37"/>
+      <c r="CZ37"/>
+      <c r="DA37"/>
+      <c r="DB37"/>
+      <c r="DC37"/>
+      <c r="DD37"/>
+      <c r="DE37"/>
+      <c r="DF37"/>
+      <c r="DG37"/>
+      <c r="DH37"/>
+      <c r="DI37"/>
+      <c r="DJ37"/>
+      <c r="DK37"/>
+      <c r="DL37"/>
+      <c r="DM37"/>
+      <c r="DN37"/>
+      <c r="DO37"/>
+      <c r="DP37"/>
+      <c r="DQ37"/>
+      <c r="DR37"/>
+      <c r="DS37"/>
+      <c r="DT37"/>
+      <c r="DU37"/>
+      <c r="DV37"/>
+      <c r="DW37"/>
+      <c r="DX37"/>
+      <c r="DY37"/>
+      <c r="DZ37"/>
+      <c r="EA37"/>
+      <c r="EB37"/>
+      <c r="EC37"/>
+      <c r="ED37"/>
+      <c r="EE37"/>
+      <c r="EF37"/>
+      <c r="EG37"/>
+      <c r="EH37"/>
+      <c r="EI37"/>
+      <c r="EJ37"/>
+      <c r="EK37"/>
+      <c r="EL37"/>
+      <c r="EM37"/>
+      <c r="EN37"/>
+      <c r="EO37"/>
+      <c r="EP37"/>
+      <c r="EQ37"/>
+      <c r="ER37"/>
+      <c r="ES37"/>
+      <c r="ET37"/>
+      <c r="EU37"/>
+      <c r="EV37"/>
+      <c r="EW37"/>
+      <c r="EX37"/>
+      <c r="EY37"/>
+      <c r="EZ37"/>
+      <c r="FA37"/>
+      <c r="FB37"/>
+      <c r="FC37"/>
+      <c r="FD37"/>
+      <c r="FE37"/>
+      <c r="FF37"/>
+      <c r="FG37"/>
+      <c r="FH37"/>
+      <c r="FI37"/>
+      <c r="FJ37"/>
+      <c r="FK37"/>
+      <c r="FL37"/>
+      <c r="FM37"/>
+      <c r="FN37"/>
+      <c r="FO37"/>
+      <c r="FP37"/>
+      <c r="FQ37"/>
+      <c r="FR37"/>
+      <c r="FS37"/>
+      <c r="FT37"/>
+      <c r="FU37"/>
+      <c r="FV37"/>
+      <c r="FW37"/>
+      <c r="FX37"/>
+      <c r="FY37"/>
+      <c r="FZ37"/>
+      <c r="GA37"/>
+      <c r="GB37"/>
+      <c r="GC37"/>
+      <c r="GD37"/>
+      <c r="GE37"/>
+      <c r="GF37"/>
+      <c r="GG37"/>
+      <c r="GH37"/>
+      <c r="GI37"/>
+      <c r="GJ37"/>
+      <c r="GK37"/>
+      <c r="GL37"/>
+      <c r="GM37"/>
+      <c r="GN37"/>
+      <c r="GO37"/>
+      <c r="GP37"/>
+      <c r="GQ37"/>
+      <c r="GR37"/>
+      <c r="GS37"/>
+      <c r="GT37"/>
+      <c r="GU37"/>
+      <c r="GV37"/>
+      <c r="GW37"/>
+      <c r="GX37"/>
+      <c r="GY37"/>
+      <c r="GZ37"/>
+      <c r="HA37"/>
+      <c r="HB37"/>
+      <c r="HC37"/>
+      <c r="HD37"/>
+      <c r="HE37"/>
+      <c r="HF37"/>
+      <c r="HG37"/>
+      <c r="HH37"/>
+      <c r="HI37"/>
+      <c r="HJ37"/>
+      <c r="HK37"/>
+      <c r="HL37"/>
+      <c r="HM37"/>
+      <c r="HN37"/>
+      <c r="HO37"/>
+      <c r="HP37"/>
+      <c r="HQ37"/>
+      <c r="HR37"/>
+      <c r="HS37"/>
+      <c r="HT37"/>
+      <c r="HU37"/>
+      <c r="HV37"/>
+      <c r="HW37"/>
+      <c r="HX37"/>
+      <c r="HY37"/>
+      <c r="HZ37"/>
+      <c r="IA37"/>
+      <c r="IB37"/>
+      <c r="IC37"/>
+      <c r="ID37"/>
+      <c r="IE37"/>
+      <c r="IF37"/>
+      <c r="IG37"/>
+      <c r="IH37"/>
+      <c r="II37"/>
+      <c r="IJ37"/>
+      <c r="IK37"/>
+      <c r="IL37"/>
+      <c r="IM37"/>
+      <c r="IN37"/>
+      <c r="IO37"/>
+      <c r="IP37"/>
+      <c r="IQ37"/>
+      <c r="IR37"/>
+      <c r="IS37"/>
+      <c r="IT37"/>
+      <c r="IU37"/>
+      <c r="IV37"/>
+      <c r="IW37"/>
+      <c r="IX37"/>
+      <c r="IY37"/>
+      <c r="IZ37"/>
+      <c r="JA37"/>
+      <c r="JB37"/>
+      <c r="JC37"/>
+      <c r="JD37"/>
+      <c r="JE37"/>
+      <c r="JF37"/>
+      <c r="JG37"/>
+      <c r="JH37"/>
+      <c r="JI37"/>
+      <c r="JJ37"/>
+      <c r="JK37"/>
+      <c r="JL37"/>
+      <c r="JM37"/>
+      <c r="JN37"/>
+      <c r="JO37"/>
+      <c r="JP37"/>
+      <c r="JQ37"/>
+      <c r="JR37"/>
+      <c r="JS37"/>
+      <c r="JT37"/>
+      <c r="JU37"/>
+      <c r="JV37"/>
+      <c r="JW37"/>
+      <c r="JX37"/>
+      <c r="JY37"/>
+      <c r="JZ37"/>
+      <c r="KA37"/>
+      <c r="KB37"/>
+      <c r="KC37"/>
+      <c r="KD37"/>
+      <c r="KE37"/>
+      <c r="KF37"/>
+      <c r="KG37"/>
+      <c r="KH37"/>
+      <c r="KI37"/>
+      <c r="KJ37"/>
+      <c r="KK37"/>
+      <c r="KL37"/>
+      <c r="KM37"/>
+      <c r="KN37"/>
+      <c r="KO37"/>
+      <c r="KP37"/>
+      <c r="KQ37"/>
+      <c r="KR37"/>
+      <c r="KS37"/>
+      <c r="KT37"/>
+      <c r="KU37"/>
+      <c r="KV37"/>
+      <c r="KW37"/>
+      <c r="KX37"/>
+      <c r="KY37"/>
+      <c r="KZ37"/>
+      <c r="LA37"/>
+      <c r="LB37"/>
+      <c r="LC37"/>
+      <c r="LD37"/>
+      <c r="LE37"/>
+      <c r="LF37"/>
+      <c r="LG37"/>
+      <c r="LH37"/>
+      <c r="LI37"/>
+      <c r="LJ37"/>
+      <c r="LK37"/>
+      <c r="LL37"/>
+      <c r="LM37"/>
+      <c r="LN37"/>
+      <c r="LO37"/>
+      <c r="LP37"/>
+      <c r="LQ37"/>
+      <c r="LR37"/>
+      <c r="LS37"/>
+      <c r="LT37"/>
+      <c r="LU37"/>
+      <c r="LV37"/>
+      <c r="LW37"/>
+      <c r="LX37"/>
+      <c r="LY37"/>
+      <c r="LZ37"/>
+      <c r="MA37"/>
+      <c r="MB37"/>
+      <c r="MC37"/>
+      <c r="MD37"/>
+      <c r="ME37"/>
+      <c r="MF37"/>
+      <c r="MG37"/>
+      <c r="MH37"/>
+      <c r="MI37"/>
+      <c r="MJ37"/>
+      <c r="MK37"/>
+      <c r="ML37"/>
+      <c r="MM37"/>
+      <c r="MN37"/>
+      <c r="MO37"/>
+      <c r="MP37"/>
+      <c r="MQ37"/>
+      <c r="MR37"/>
+      <c r="MS37"/>
+      <c r="MT37"/>
+      <c r="MU37"/>
+      <c r="MV37"/>
+      <c r="MW37"/>
+      <c r="MX37"/>
+      <c r="MY37"/>
+      <c r="MZ37"/>
+      <c r="NA37"/>
+      <c r="NB37"/>
+      <c r="NC37"/>
+      <c r="ND37"/>
+      <c r="NE37"/>
+      <c r="NF37"/>
+      <c r="NG37"/>
+      <c r="NH37"/>
+      <c r="NI37"/>
+      <c r="NJ37"/>
+      <c r="NK37"/>
+      <c r="NL37"/>
+      <c r="NM37"/>
+      <c r="NN37"/>
+      <c r="NO37"/>
+      <c r="NP37"/>
+      <c r="NQ37"/>
+      <c r="NR37"/>
+      <c r="NS37"/>
+      <c r="NT37"/>
+      <c r="NU37"/>
+      <c r="NV37"/>
+      <c r="NW37"/>
+      <c r="NX37"/>
+      <c r="NY37"/>
+      <c r="NZ37"/>
+      <c r="OA37"/>
+      <c r="OB37"/>
+      <c r="OC37"/>
+      <c r="OD37"/>
+      <c r="OE37"/>
+      <c r="OF37"/>
+      <c r="OG37"/>
+      <c r="OH37"/>
+      <c r="OI37"/>
+      <c r="OJ37"/>
+      <c r="OK37"/>
+      <c r="OL37"/>
+      <c r="OM37"/>
+      <c r="ON37"/>
+      <c r="OO37"/>
+      <c r="OP37"/>
+      <c r="OQ37"/>
+      <c r="OR37"/>
+      <c r="OS37"/>
+      <c r="OT37"/>
+      <c r="OU37"/>
+      <c r="OV37"/>
+      <c r="OW37"/>
+      <c r="OX37"/>
+      <c r="OY37"/>
+      <c r="OZ37"/>
+      <c r="PA37"/>
+      <c r="PB37"/>
+      <c r="PC37"/>
+      <c r="PD37"/>
+      <c r="PE37"/>
+      <c r="PF37"/>
+      <c r="PG37"/>
+      <c r="PH37"/>
+      <c r="PI37"/>
+      <c r="PJ37"/>
+      <c r="PK37"/>
+      <c r="PL37"/>
+      <c r="PM37"/>
+      <c r="PN37"/>
+      <c r="PO37"/>
+      <c r="PP37"/>
+      <c r="PQ37"/>
+      <c r="PR37"/>
+      <c r="PS37"/>
+      <c r="PT37"/>
+      <c r="PU37"/>
+      <c r="PV37"/>
+      <c r="PW37"/>
+      <c r="PX37"/>
+      <c r="PY37"/>
+      <c r="PZ37"/>
+      <c r="QA37"/>
+      <c r="QB37"/>
+      <c r="QC37"/>
+      <c r="QD37"/>
+      <c r="QE37"/>
+      <c r="QF37"/>
+      <c r="QG37"/>
+      <c r="QH37"/>
+      <c r="QI37"/>
+      <c r="QJ37"/>
+      <c r="QK37"/>
+      <c r="QL37"/>
+      <c r="QM37"/>
+      <c r="QN37"/>
+      <c r="QO37"/>
+      <c r="QP37"/>
+      <c r="QQ37"/>
+      <c r="QR37"/>
+      <c r="QS37"/>
+      <c r="QT37"/>
+      <c r="QU37"/>
+      <c r="QV37"/>
+      <c r="QW37"/>
+      <c r="QX37"/>
+      <c r="QY37"/>
+      <c r="QZ37"/>
+      <c r="RA37"/>
+      <c r="RB37"/>
+      <c r="RC37"/>
+      <c r="RD37"/>
+      <c r="RE37"/>
+      <c r="RF37"/>
+      <c r="RG37"/>
+      <c r="RH37"/>
+      <c r="RI37"/>
+      <c r="RJ37"/>
+      <c r="RK37"/>
+      <c r="RL37"/>
+      <c r="RM37"/>
+      <c r="RN37"/>
+      <c r="RO37"/>
+      <c r="RP37"/>
+      <c r="RQ37"/>
+      <c r="RR37"/>
+      <c r="RS37"/>
+      <c r="RT37"/>
+      <c r="RU37"/>
+      <c r="RV37"/>
+      <c r="RW37"/>
+      <c r="RX37"/>
+      <c r="RY37"/>
+      <c r="RZ37"/>
+      <c r="SA37"/>
+      <c r="SB37"/>
+      <c r="SC37"/>
+      <c r="SD37"/>
+      <c r="SE37"/>
+      <c r="SF37"/>
+      <c r="SG37"/>
+      <c r="SH37"/>
+      <c r="SI37"/>
+      <c r="SJ37"/>
+      <c r="SK37"/>
+      <c r="SL37"/>
+      <c r="SM37"/>
+      <c r="SN37"/>
+      <c r="SO37"/>
+      <c r="SP37"/>
+      <c r="SQ37"/>
+      <c r="SR37"/>
+      <c r="SS37"/>
+      <c r="ST37"/>
+      <c r="SU37"/>
+      <c r="SV37"/>
+      <c r="SW37"/>
+      <c r="SX37"/>
+      <c r="SY37"/>
+      <c r="SZ37"/>
+      <c r="TA37"/>
+      <c r="TB37"/>
+      <c r="TC37"/>
+      <c r="TD37"/>
+      <c r="TE37"/>
+      <c r="TF37"/>
+      <c r="TG37"/>
+      <c r="TH37"/>
+      <c r="TI37"/>
+      <c r="TJ37"/>
+      <c r="TK37"/>
+      <c r="TL37"/>
+      <c r="TM37"/>
+      <c r="TN37"/>
+      <c r="TO37"/>
+      <c r="TP37"/>
+      <c r="TQ37"/>
+      <c r="TR37"/>
+      <c r="TS37"/>
+      <c r="TT37"/>
+      <c r="TU37"/>
+      <c r="TV37"/>
+      <c r="TW37"/>
+      <c r="TX37"/>
+      <c r="TY37"/>
+      <c r="TZ37"/>
+      <c r="UA37"/>
+      <c r="UB37"/>
+      <c r="UC37"/>
+      <c r="UD37"/>
+      <c r="UE37"/>
+      <c r="UF37"/>
+      <c r="UG37"/>
+      <c r="UH37"/>
+      <c r="UI37"/>
+      <c r="UJ37"/>
+      <c r="UK37"/>
+      <c r="UL37"/>
+      <c r="UM37"/>
+      <c r="UN37"/>
+      <c r="UO37"/>
+      <c r="UP37"/>
+      <c r="UQ37"/>
+      <c r="UR37"/>
+      <c r="US37"/>
+      <c r="UT37"/>
+      <c r="UU37"/>
+      <c r="UV37"/>
+      <c r="UW37"/>
+      <c r="UX37"/>
+      <c r="UY37"/>
+      <c r="UZ37"/>
+      <c r="VA37"/>
+      <c r="VB37"/>
+      <c r="VC37"/>
+      <c r="VD37"/>
+      <c r="VE37"/>
+      <c r="VF37"/>
+      <c r="VG37"/>
+      <c r="VH37"/>
+      <c r="VI37"/>
+      <c r="VJ37"/>
+      <c r="VK37"/>
+      <c r="VL37"/>
+      <c r="VM37"/>
+      <c r="VN37"/>
+      <c r="VO37"/>
+      <c r="VP37"/>
+      <c r="VQ37"/>
+      <c r="VR37"/>
+      <c r="VS37"/>
+      <c r="VT37"/>
+      <c r="VU37"/>
+      <c r="VV37"/>
+      <c r="VW37"/>
+      <c r="VX37"/>
+      <c r="VY37"/>
+      <c r="VZ37"/>
+      <c r="WA37"/>
+      <c r="WB37"/>
+      <c r="WC37"/>
+      <c r="WD37"/>
+      <c r="WE37"/>
+      <c r="WF37"/>
+      <c r="WG37"/>
+      <c r="WH37"/>
+      <c r="WI37"/>
+      <c r="WJ37"/>
+      <c r="WK37"/>
+      <c r="WL37"/>
+      <c r="WM37"/>
+      <c r="WN37"/>
+      <c r="WO37"/>
+      <c r="WP37"/>
+      <c r="WQ37"/>
+      <c r="WR37"/>
+      <c r="WS37"/>
+      <c r="WT37"/>
+      <c r="WU37"/>
+      <c r="WV37"/>
+      <c r="WW37"/>
+      <c r="WX37"/>
+      <c r="WY37"/>
+      <c r="WZ37"/>
+      <c r="XA37"/>
+      <c r="XB37"/>
+      <c r="XC37"/>
+      <c r="XD37"/>
+      <c r="XE37"/>
+      <c r="XF37"/>
+      <c r="XG37"/>
+      <c r="XH37"/>
+      <c r="XI37"/>
+      <c r="XJ37"/>
+      <c r="XK37"/>
+      <c r="XL37"/>
+      <c r="XM37"/>
+      <c r="XN37"/>
+      <c r="XO37"/>
+      <c r="XP37"/>
+      <c r="XQ37"/>
+      <c r="XR37"/>
+      <c r="XS37"/>
+      <c r="XT37"/>
+      <c r="XU37"/>
+      <c r="XV37"/>
+      <c r="XW37"/>
+      <c r="XX37"/>
+      <c r="XY37"/>
+      <c r="XZ37"/>
+      <c r="YA37"/>
+      <c r="YB37"/>
+      <c r="YC37"/>
+      <c r="YD37"/>
+      <c r="YE37"/>
+      <c r="YF37"/>
+      <c r="YG37"/>
+      <c r="YH37"/>
+      <c r="YI37"/>
+      <c r="YJ37"/>
+      <c r="YK37"/>
+      <c r="YL37"/>
+      <c r="YM37"/>
+      <c r="YN37"/>
+      <c r="YO37"/>
+      <c r="YP37"/>
+      <c r="YQ37"/>
+      <c r="YR37"/>
+      <c r="YS37"/>
+      <c r="YT37"/>
+      <c r="YU37"/>
+      <c r="YV37"/>
+      <c r="YW37"/>
+      <c r="YX37"/>
+      <c r="YY37"/>
+      <c r="YZ37"/>
+      <c r="ZA37"/>
+      <c r="ZB37"/>
+      <c r="ZC37"/>
+      <c r="ZD37"/>
+      <c r="ZE37"/>
+      <c r="ZF37"/>
+      <c r="ZG37"/>
+      <c r="ZH37"/>
+      <c r="ZI37"/>
+      <c r="ZJ37"/>
+      <c r="ZK37"/>
+      <c r="ZL37"/>
+      <c r="ZM37"/>
+      <c r="ZN37"/>
+      <c r="ZO37"/>
+      <c r="ZP37"/>
+      <c r="ZQ37"/>
+      <c r="ZR37"/>
+      <c r="ZS37"/>
+      <c r="ZT37"/>
+      <c r="ZU37"/>
+      <c r="ZV37"/>
+      <c r="ZW37"/>
+      <c r="ZX37"/>
+      <c r="ZY37"/>
+      <c r="ZZ37"/>
+      <c r="AAA37"/>
+      <c r="AAB37"/>
+      <c r="AAC37"/>
+      <c r="AAD37"/>
+      <c r="AAE37"/>
+      <c r="AAF37"/>
+      <c r="AAG37"/>
+      <c r="AAH37"/>
+      <c r="AAI37"/>
+      <c r="AAJ37"/>
+      <c r="AAK37"/>
+      <c r="AAL37"/>
+      <c r="AAM37"/>
+      <c r="AAN37"/>
+      <c r="AAO37"/>
+      <c r="AAP37"/>
+      <c r="AAQ37"/>
+      <c r="AAR37"/>
+      <c r="AAS37"/>
+      <c r="AAT37"/>
+      <c r="AAU37"/>
+      <c r="AAV37"/>
+      <c r="AAW37"/>
+      <c r="AAX37"/>
+      <c r="AAY37"/>
+      <c r="AAZ37"/>
+      <c r="ABA37"/>
+      <c r="ABB37"/>
+      <c r="ABC37"/>
+      <c r="ABD37"/>
+      <c r="ABE37"/>
+      <c r="ABF37"/>
+      <c r="ABG37"/>
+      <c r="ABH37"/>
+      <c r="ABI37"/>
+      <c r="ABJ37"/>
+      <c r="ABK37"/>
+      <c r="ABL37"/>
+      <c r="ABM37"/>
+      <c r="ABN37"/>
+      <c r="ABO37"/>
+      <c r="ABP37"/>
+      <c r="ABQ37"/>
+      <c r="ABR37"/>
+      <c r="ABS37"/>
+      <c r="ABT37"/>
+      <c r="ABU37"/>
+      <c r="ABV37"/>
+      <c r="ABW37"/>
+      <c r="ABX37"/>
+      <c r="ABY37"/>
+      <c r="ABZ37"/>
+      <c r="ACA37"/>
+      <c r="ACB37"/>
+      <c r="ACC37"/>
+      <c r="ACD37"/>
+      <c r="ACE37"/>
+      <c r="ACF37"/>
+      <c r="ACG37"/>
+      <c r="ACH37"/>
+      <c r="ACI37"/>
+      <c r="ACJ37"/>
+      <c r="ACK37"/>
+      <c r="ACL37"/>
+      <c r="ACM37"/>
+      <c r="ACN37"/>
+      <c r="ACO37"/>
+      <c r="ACP37"/>
+      <c r="ACQ37"/>
+      <c r="ACR37"/>
+      <c r="ACS37"/>
+      <c r="ACT37"/>
+      <c r="ACU37"/>
+      <c r="ACV37"/>
+      <c r="ACW37"/>
+      <c r="ACX37"/>
+      <c r="ACY37"/>
+      <c r="ACZ37"/>
+      <c r="ADA37"/>
+      <c r="ADB37"/>
+      <c r="ADC37"/>
+      <c r="ADD37"/>
+      <c r="ADE37"/>
+      <c r="ADF37"/>
+      <c r="ADG37"/>
+      <c r="ADH37"/>
+      <c r="ADI37"/>
+      <c r="ADJ37"/>
+      <c r="ADK37"/>
+      <c r="ADL37"/>
+      <c r="ADM37"/>
+      <c r="ADN37"/>
+      <c r="ADO37"/>
+      <c r="ADP37"/>
+      <c r="ADQ37"/>
+      <c r="ADR37"/>
+      <c r="ADS37"/>
+      <c r="ADT37"/>
+      <c r="ADU37"/>
+      <c r="ADV37"/>
+      <c r="ADW37"/>
+      <c r="ADX37"/>
+      <c r="ADY37"/>
+      <c r="ADZ37"/>
+      <c r="AEA37"/>
+      <c r="AEB37"/>
+      <c r="AEC37"/>
+      <c r="AED37"/>
+      <c r="AEE37"/>
+      <c r="AEF37"/>
+      <c r="AEG37"/>
+      <c r="AEH37"/>
+      <c r="AEI37"/>
+      <c r="AEJ37"/>
+      <c r="AEK37"/>
+      <c r="AEL37"/>
+      <c r="AEM37"/>
+      <c r="AEN37"/>
+      <c r="AEO37"/>
+      <c r="AEP37"/>
+      <c r="AEQ37"/>
+      <c r="AER37"/>
+      <c r="AES37"/>
+      <c r="AET37"/>
+      <c r="AEU37"/>
+      <c r="AEV37"/>
+      <c r="AEW37"/>
+      <c r="AEX37"/>
+      <c r="AEY37"/>
+      <c r="AEZ37"/>
+      <c r="AFA37"/>
+      <c r="AFB37"/>
+      <c r="AFC37"/>
+      <c r="AFD37"/>
+      <c r="AFE37"/>
+      <c r="AFF37"/>
+      <c r="AFG37"/>
+      <c r="AFH37"/>
+      <c r="AFI37"/>
+      <c r="AFJ37"/>
+      <c r="AFK37"/>
+      <c r="AFL37"/>
+      <c r="AFM37"/>
+      <c r="AFN37"/>
+      <c r="AFO37"/>
+      <c r="AFP37"/>
+      <c r="AFQ37"/>
+      <c r="AFR37"/>
+      <c r="AFS37"/>
+      <c r="AFT37"/>
+      <c r="AFU37"/>
+      <c r="AFV37"/>
+      <c r="AFW37"/>
+      <c r="AFX37"/>
+      <c r="AFY37"/>
+      <c r="AFZ37"/>
+      <c r="AGA37"/>
+      <c r="AGB37"/>
+      <c r="AGC37"/>
+      <c r="AGD37"/>
+      <c r="AGE37"/>
+      <c r="AGF37"/>
+      <c r="AGG37"/>
+      <c r="AGH37"/>
+      <c r="AGI37"/>
+      <c r="AGJ37"/>
+      <c r="AGK37"/>
+      <c r="AGL37"/>
+      <c r="AGM37"/>
+      <c r="AGN37"/>
+      <c r="AGO37"/>
+      <c r="AGP37"/>
+      <c r="AGQ37"/>
+      <c r="AGR37"/>
+      <c r="AGS37"/>
+      <c r="AGT37"/>
+      <c r="AGU37"/>
+      <c r="AGV37"/>
+      <c r="AGW37"/>
+      <c r="AGX37"/>
+      <c r="AGY37"/>
+      <c r="AGZ37"/>
+      <c r="AHA37"/>
+      <c r="AHB37"/>
+      <c r="AHC37"/>
+      <c r="AHD37"/>
+      <c r="AHE37"/>
+      <c r="AHF37"/>
+      <c r="AHG37"/>
+      <c r="AHH37"/>
+      <c r="AHI37"/>
+      <c r="AHJ37"/>
+      <c r="AHK37"/>
+      <c r="AHL37"/>
+      <c r="AHM37"/>
+      <c r="AHN37"/>
+      <c r="AHO37"/>
+      <c r="AHP37"/>
+      <c r="AHQ37"/>
+      <c r="AHR37"/>
+      <c r="AHS37"/>
+      <c r="AHT37"/>
+      <c r="AHU37"/>
+      <c r="AHV37"/>
+      <c r="AHW37"/>
+      <c r="AHX37"/>
+      <c r="AHY37"/>
+      <c r="AHZ37"/>
+      <c r="AIA37"/>
+      <c r="AIB37"/>
+      <c r="AIC37"/>
+      <c r="AID37"/>
+      <c r="AIE37"/>
+      <c r="AIF37"/>
+      <c r="AIG37"/>
+      <c r="AIH37"/>
+      <c r="AII37"/>
+      <c r="AIJ37"/>
+      <c r="AIK37"/>
+      <c r="AIL37"/>
+      <c r="AIM37"/>
+      <c r="AIN37"/>
+      <c r="AIO37"/>
+      <c r="AIP37"/>
+      <c r="AIQ37"/>
+      <c r="AIR37"/>
+      <c r="AIS37"/>
+      <c r="AIT37"/>
+      <c r="AIU37"/>
+      <c r="AIV37"/>
+      <c r="AIW37"/>
+      <c r="AIX37"/>
+      <c r="AIY37"/>
+      <c r="AIZ37"/>
+      <c r="AJA37"/>
+      <c r="AJB37"/>
+      <c r="AJC37"/>
+      <c r="AJD37"/>
+      <c r="AJE37"/>
+      <c r="AJF37"/>
+      <c r="AJG37"/>
+      <c r="AJH37"/>
+      <c r="AJI37"/>
+      <c r="AJJ37"/>
+      <c r="AJK37"/>
+      <c r="AJL37"/>
+      <c r="AJM37"/>
+      <c r="AJN37"/>
+      <c r="AJO37"/>
+      <c r="AJP37"/>
+      <c r="AJQ37"/>
+      <c r="AJR37"/>
+      <c r="AJS37"/>
+      <c r="AJT37"/>
+      <c r="AJU37"/>
+      <c r="AJV37"/>
+      <c r="AJW37"/>
+      <c r="AJX37"/>
+      <c r="AJY37"/>
+      <c r="AJZ37"/>
+      <c r="AKA37"/>
+      <c r="AKB37"/>
+      <c r="AKC37"/>
+      <c r="AKD37"/>
+      <c r="AKE37"/>
+      <c r="AKF37"/>
+      <c r="AKG37"/>
+      <c r="AKH37"/>
+      <c r="AKI37"/>
+      <c r="AKJ37"/>
+      <c r="AKK37"/>
+      <c r="AKL37"/>
+      <c r="AKM37"/>
+      <c r="AKN37"/>
+      <c r="AKO37"/>
+      <c r="AKP37"/>
+      <c r="AKQ37"/>
+      <c r="AKR37"/>
+      <c r="AKS37"/>
+      <c r="AKT37"/>
+      <c r="AKU37"/>
+      <c r="AKV37"/>
+      <c r="AKW37"/>
+      <c r="AKX37"/>
+      <c r="AKY37"/>
+      <c r="AKZ37"/>
+      <c r="ALA37"/>
+      <c r="ALB37"/>
+      <c r="ALC37"/>
+      <c r="ALD37"/>
+      <c r="ALE37"/>
+      <c r="ALF37"/>
+      <c r="ALG37"/>
+      <c r="ALH37"/>
+      <c r="ALI37"/>
+      <c r="ALJ37"/>
+      <c r="ALK37"/>
+      <c r="ALL37"/>
+      <c r="ALM37"/>
+      <c r="ALN37"/>
+      <c r="ALO37"/>
+      <c r="ALP37"/>
+      <c r="ALQ37"/>
+      <c r="ALR37"/>
+      <c r="ALS37"/>
+      <c r="ALT37"/>
+      <c r="ALU37"/>
+      <c r="ALV37"/>
+      <c r="ALW37"/>
+      <c r="ALX37"/>
+      <c r="ALY37"/>
+      <c r="ALZ37"/>
+      <c r="AMA37"/>
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+    </row>
+    <row r="38" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
@@ -4204,6 +5670,959 @@
       <c r="BJ38" s="9"/>
       <c r="BK38" s="9"/>
       <c r="BL38" s="9"/>
+      <c r="BM38"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+      <c r="BR38"/>
+      <c r="BS38"/>
+      <c r="BT38"/>
+      <c r="BU38"/>
+      <c r="BV38"/>
+      <c r="BW38"/>
+      <c r="BX38"/>
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+      <c r="CB38"/>
+      <c r="CC38"/>
+      <c r="CD38"/>
+      <c r="CE38"/>
+      <c r="CF38"/>
+      <c r="CG38"/>
+      <c r="CH38"/>
+      <c r="CI38"/>
+      <c r="CJ38"/>
+      <c r="CK38"/>
+      <c r="CL38"/>
+      <c r="CM38"/>
+      <c r="CN38"/>
+      <c r="CO38"/>
+      <c r="CP38"/>
+      <c r="CQ38"/>
+      <c r="CR38"/>
+      <c r="CS38"/>
+      <c r="CT38"/>
+      <c r="CU38"/>
+      <c r="CV38"/>
+      <c r="CW38"/>
+      <c r="CX38"/>
+      <c r="CY38"/>
+      <c r="CZ38"/>
+      <c r="DA38"/>
+      <c r="DB38"/>
+      <c r="DC38"/>
+      <c r="DD38"/>
+      <c r="DE38"/>
+      <c r="DF38"/>
+      <c r="DG38"/>
+      <c r="DH38"/>
+      <c r="DI38"/>
+      <c r="DJ38"/>
+      <c r="DK38"/>
+      <c r="DL38"/>
+      <c r="DM38"/>
+      <c r="DN38"/>
+      <c r="DO38"/>
+      <c r="DP38"/>
+      <c r="DQ38"/>
+      <c r="DR38"/>
+      <c r="DS38"/>
+      <c r="DT38"/>
+      <c r="DU38"/>
+      <c r="DV38"/>
+      <c r="DW38"/>
+      <c r="DX38"/>
+      <c r="DY38"/>
+      <c r="DZ38"/>
+      <c r="EA38"/>
+      <c r="EB38"/>
+      <c r="EC38"/>
+      <c r="ED38"/>
+      <c r="EE38"/>
+      <c r="EF38"/>
+      <c r="EG38"/>
+      <c r="EH38"/>
+      <c r="EI38"/>
+      <c r="EJ38"/>
+      <c r="EK38"/>
+      <c r="EL38"/>
+      <c r="EM38"/>
+      <c r="EN38"/>
+      <c r="EO38"/>
+      <c r="EP38"/>
+      <c r="EQ38"/>
+      <c r="ER38"/>
+      <c r="ES38"/>
+      <c r="ET38"/>
+      <c r="EU38"/>
+      <c r="EV38"/>
+      <c r="EW38"/>
+      <c r="EX38"/>
+      <c r="EY38"/>
+      <c r="EZ38"/>
+      <c r="FA38"/>
+      <c r="FB38"/>
+      <c r="FC38"/>
+      <c r="FD38"/>
+      <c r="FE38"/>
+      <c r="FF38"/>
+      <c r="FG38"/>
+      <c r="FH38"/>
+      <c r="FI38"/>
+      <c r="FJ38"/>
+      <c r="FK38"/>
+      <c r="FL38"/>
+      <c r="FM38"/>
+      <c r="FN38"/>
+      <c r="FO38"/>
+      <c r="FP38"/>
+      <c r="FQ38"/>
+      <c r="FR38"/>
+      <c r="FS38"/>
+      <c r="FT38"/>
+      <c r="FU38"/>
+      <c r="FV38"/>
+      <c r="FW38"/>
+      <c r="FX38"/>
+      <c r="FY38"/>
+      <c r="FZ38"/>
+      <c r="GA38"/>
+      <c r="GB38"/>
+      <c r="GC38"/>
+      <c r="GD38"/>
+      <c r="GE38"/>
+      <c r="GF38"/>
+      <c r="GG38"/>
+      <c r="GH38"/>
+      <c r="GI38"/>
+      <c r="GJ38"/>
+      <c r="GK38"/>
+      <c r="GL38"/>
+      <c r="GM38"/>
+      <c r="GN38"/>
+      <c r="GO38"/>
+      <c r="GP38"/>
+      <c r="GQ38"/>
+      <c r="GR38"/>
+      <c r="GS38"/>
+      <c r="GT38"/>
+      <c r="GU38"/>
+      <c r="GV38"/>
+      <c r="GW38"/>
+      <c r="GX38"/>
+      <c r="GY38"/>
+      <c r="GZ38"/>
+      <c r="HA38"/>
+      <c r="HB38"/>
+      <c r="HC38"/>
+      <c r="HD38"/>
+      <c r="HE38"/>
+      <c r="HF38"/>
+      <c r="HG38"/>
+      <c r="HH38"/>
+      <c r="HI38"/>
+      <c r="HJ38"/>
+      <c r="HK38"/>
+      <c r="HL38"/>
+      <c r="HM38"/>
+      <c r="HN38"/>
+      <c r="HO38"/>
+      <c r="HP38"/>
+      <c r="HQ38"/>
+      <c r="HR38"/>
+      <c r="HS38"/>
+      <c r="HT38"/>
+      <c r="HU38"/>
+      <c r="HV38"/>
+      <c r="HW38"/>
+      <c r="HX38"/>
+      <c r="HY38"/>
+      <c r="HZ38"/>
+      <c r="IA38"/>
+      <c r="IB38"/>
+      <c r="IC38"/>
+      <c r="ID38"/>
+      <c r="IE38"/>
+      <c r="IF38"/>
+      <c r="IG38"/>
+      <c r="IH38"/>
+      <c r="II38"/>
+      <c r="IJ38"/>
+      <c r="IK38"/>
+      <c r="IL38"/>
+      <c r="IM38"/>
+      <c r="IN38"/>
+      <c r="IO38"/>
+      <c r="IP38"/>
+      <c r="IQ38"/>
+      <c r="IR38"/>
+      <c r="IS38"/>
+      <c r="IT38"/>
+      <c r="IU38"/>
+      <c r="IV38"/>
+      <c r="IW38"/>
+      <c r="IX38"/>
+      <c r="IY38"/>
+      <c r="IZ38"/>
+      <c r="JA38"/>
+      <c r="JB38"/>
+      <c r="JC38"/>
+      <c r="JD38"/>
+      <c r="JE38"/>
+      <c r="JF38"/>
+      <c r="JG38"/>
+      <c r="JH38"/>
+      <c r="JI38"/>
+      <c r="JJ38"/>
+      <c r="JK38"/>
+      <c r="JL38"/>
+      <c r="JM38"/>
+      <c r="JN38"/>
+      <c r="JO38"/>
+      <c r="JP38"/>
+      <c r="JQ38"/>
+      <c r="JR38"/>
+      <c r="JS38"/>
+      <c r="JT38"/>
+      <c r="JU38"/>
+      <c r="JV38"/>
+      <c r="JW38"/>
+      <c r="JX38"/>
+      <c r="JY38"/>
+      <c r="JZ38"/>
+      <c r="KA38"/>
+      <c r="KB38"/>
+      <c r="KC38"/>
+      <c r="KD38"/>
+      <c r="KE38"/>
+      <c r="KF38"/>
+      <c r="KG38"/>
+      <c r="KH38"/>
+      <c r="KI38"/>
+      <c r="KJ38"/>
+      <c r="KK38"/>
+      <c r="KL38"/>
+      <c r="KM38"/>
+      <c r="KN38"/>
+      <c r="KO38"/>
+      <c r="KP38"/>
+      <c r="KQ38"/>
+      <c r="KR38"/>
+      <c r="KS38"/>
+      <c r="KT38"/>
+      <c r="KU38"/>
+      <c r="KV38"/>
+      <c r="KW38"/>
+      <c r="KX38"/>
+      <c r="KY38"/>
+      <c r="KZ38"/>
+      <c r="LA38"/>
+      <c r="LB38"/>
+      <c r="LC38"/>
+      <c r="LD38"/>
+      <c r="LE38"/>
+      <c r="LF38"/>
+      <c r="LG38"/>
+      <c r="LH38"/>
+      <c r="LI38"/>
+      <c r="LJ38"/>
+      <c r="LK38"/>
+      <c r="LL38"/>
+      <c r="LM38"/>
+      <c r="LN38"/>
+      <c r="LO38"/>
+      <c r="LP38"/>
+      <c r="LQ38"/>
+      <c r="LR38"/>
+      <c r="LS38"/>
+      <c r="LT38"/>
+      <c r="LU38"/>
+      <c r="LV38"/>
+      <c r="LW38"/>
+      <c r="LX38"/>
+      <c r="LY38"/>
+      <c r="LZ38"/>
+      <c r="MA38"/>
+      <c r="MB38"/>
+      <c r="MC38"/>
+      <c r="MD38"/>
+      <c r="ME38"/>
+      <c r="MF38"/>
+      <c r="MG38"/>
+      <c r="MH38"/>
+      <c r="MI38"/>
+      <c r="MJ38"/>
+      <c r="MK38"/>
+      <c r="ML38"/>
+      <c r="MM38"/>
+      <c r="MN38"/>
+      <c r="MO38"/>
+      <c r="MP38"/>
+      <c r="MQ38"/>
+      <c r="MR38"/>
+      <c r="MS38"/>
+      <c r="MT38"/>
+      <c r="MU38"/>
+      <c r="MV38"/>
+      <c r="MW38"/>
+      <c r="MX38"/>
+      <c r="MY38"/>
+      <c r="MZ38"/>
+      <c r="NA38"/>
+      <c r="NB38"/>
+      <c r="NC38"/>
+      <c r="ND38"/>
+      <c r="NE38"/>
+      <c r="NF38"/>
+      <c r="NG38"/>
+      <c r="NH38"/>
+      <c r="NI38"/>
+      <c r="NJ38"/>
+      <c r="NK38"/>
+      <c r="NL38"/>
+      <c r="NM38"/>
+      <c r="NN38"/>
+      <c r="NO38"/>
+      <c r="NP38"/>
+      <c r="NQ38"/>
+      <c r="NR38"/>
+      <c r="NS38"/>
+      <c r="NT38"/>
+      <c r="NU38"/>
+      <c r="NV38"/>
+      <c r="NW38"/>
+      <c r="NX38"/>
+      <c r="NY38"/>
+      <c r="NZ38"/>
+      <c r="OA38"/>
+      <c r="OB38"/>
+      <c r="OC38"/>
+      <c r="OD38"/>
+      <c r="OE38"/>
+      <c r="OF38"/>
+      <c r="OG38"/>
+      <c r="OH38"/>
+      <c r="OI38"/>
+      <c r="OJ38"/>
+      <c r="OK38"/>
+      <c r="OL38"/>
+      <c r="OM38"/>
+      <c r="ON38"/>
+      <c r="OO38"/>
+      <c r="OP38"/>
+      <c r="OQ38"/>
+      <c r="OR38"/>
+      <c r="OS38"/>
+      <c r="OT38"/>
+      <c r="OU38"/>
+      <c r="OV38"/>
+      <c r="OW38"/>
+      <c r="OX38"/>
+      <c r="OY38"/>
+      <c r="OZ38"/>
+      <c r="PA38"/>
+      <c r="PB38"/>
+      <c r="PC38"/>
+      <c r="PD38"/>
+      <c r="PE38"/>
+      <c r="PF38"/>
+      <c r="PG38"/>
+      <c r="PH38"/>
+      <c r="PI38"/>
+      <c r="PJ38"/>
+      <c r="PK38"/>
+      <c r="PL38"/>
+      <c r="PM38"/>
+      <c r="PN38"/>
+      <c r="PO38"/>
+      <c r="PP38"/>
+      <c r="PQ38"/>
+      <c r="PR38"/>
+      <c r="PS38"/>
+      <c r="PT38"/>
+      <c r="PU38"/>
+      <c r="PV38"/>
+      <c r="PW38"/>
+      <c r="PX38"/>
+      <c r="PY38"/>
+      <c r="PZ38"/>
+      <c r="QA38"/>
+      <c r="QB38"/>
+      <c r="QC38"/>
+      <c r="QD38"/>
+      <c r="QE38"/>
+      <c r="QF38"/>
+      <c r="QG38"/>
+      <c r="QH38"/>
+      <c r="QI38"/>
+      <c r="QJ38"/>
+      <c r="QK38"/>
+      <c r="QL38"/>
+      <c r="QM38"/>
+      <c r="QN38"/>
+      <c r="QO38"/>
+      <c r="QP38"/>
+      <c r="QQ38"/>
+      <c r="QR38"/>
+      <c r="QS38"/>
+      <c r="QT38"/>
+      <c r="QU38"/>
+      <c r="QV38"/>
+      <c r="QW38"/>
+      <c r="QX38"/>
+      <c r="QY38"/>
+      <c r="QZ38"/>
+      <c r="RA38"/>
+      <c r="RB38"/>
+      <c r="RC38"/>
+      <c r="RD38"/>
+      <c r="RE38"/>
+      <c r="RF38"/>
+      <c r="RG38"/>
+      <c r="RH38"/>
+      <c r="RI38"/>
+      <c r="RJ38"/>
+      <c r="RK38"/>
+      <c r="RL38"/>
+      <c r="RM38"/>
+      <c r="RN38"/>
+      <c r="RO38"/>
+      <c r="RP38"/>
+      <c r="RQ38"/>
+      <c r="RR38"/>
+      <c r="RS38"/>
+      <c r="RT38"/>
+      <c r="RU38"/>
+      <c r="RV38"/>
+      <c r="RW38"/>
+      <c r="RX38"/>
+      <c r="RY38"/>
+      <c r="RZ38"/>
+      <c r="SA38"/>
+      <c r="SB38"/>
+      <c r="SC38"/>
+      <c r="SD38"/>
+      <c r="SE38"/>
+      <c r="SF38"/>
+      <c r="SG38"/>
+      <c r="SH38"/>
+      <c r="SI38"/>
+      <c r="SJ38"/>
+      <c r="SK38"/>
+      <c r="SL38"/>
+      <c r="SM38"/>
+      <c r="SN38"/>
+      <c r="SO38"/>
+      <c r="SP38"/>
+      <c r="SQ38"/>
+      <c r="SR38"/>
+      <c r="SS38"/>
+      <c r="ST38"/>
+      <c r="SU38"/>
+      <c r="SV38"/>
+      <c r="SW38"/>
+      <c r="SX38"/>
+      <c r="SY38"/>
+      <c r="SZ38"/>
+      <c r="TA38"/>
+      <c r="TB38"/>
+      <c r="TC38"/>
+      <c r="TD38"/>
+      <c r="TE38"/>
+      <c r="TF38"/>
+      <c r="TG38"/>
+      <c r="TH38"/>
+      <c r="TI38"/>
+      <c r="TJ38"/>
+      <c r="TK38"/>
+      <c r="TL38"/>
+      <c r="TM38"/>
+      <c r="TN38"/>
+      <c r="TO38"/>
+      <c r="TP38"/>
+      <c r="TQ38"/>
+      <c r="TR38"/>
+      <c r="TS38"/>
+      <c r="TT38"/>
+      <c r="TU38"/>
+      <c r="TV38"/>
+      <c r="TW38"/>
+      <c r="TX38"/>
+      <c r="TY38"/>
+      <c r="TZ38"/>
+      <c r="UA38"/>
+      <c r="UB38"/>
+      <c r="UC38"/>
+      <c r="UD38"/>
+      <c r="UE38"/>
+      <c r="UF38"/>
+      <c r="UG38"/>
+      <c r="UH38"/>
+      <c r="UI38"/>
+      <c r="UJ38"/>
+      <c r="UK38"/>
+      <c r="UL38"/>
+      <c r="UM38"/>
+      <c r="UN38"/>
+      <c r="UO38"/>
+      <c r="UP38"/>
+      <c r="UQ38"/>
+      <c r="UR38"/>
+      <c r="US38"/>
+      <c r="UT38"/>
+      <c r="UU38"/>
+      <c r="UV38"/>
+      <c r="UW38"/>
+      <c r="UX38"/>
+      <c r="UY38"/>
+      <c r="UZ38"/>
+      <c r="VA38"/>
+      <c r="VB38"/>
+      <c r="VC38"/>
+      <c r="VD38"/>
+      <c r="VE38"/>
+      <c r="VF38"/>
+      <c r="VG38"/>
+      <c r="VH38"/>
+      <c r="VI38"/>
+      <c r="VJ38"/>
+      <c r="VK38"/>
+      <c r="VL38"/>
+      <c r="VM38"/>
+      <c r="VN38"/>
+      <c r="VO38"/>
+      <c r="VP38"/>
+      <c r="VQ38"/>
+      <c r="VR38"/>
+      <c r="VS38"/>
+      <c r="VT38"/>
+      <c r="VU38"/>
+      <c r="VV38"/>
+      <c r="VW38"/>
+      <c r="VX38"/>
+      <c r="VY38"/>
+      <c r="VZ38"/>
+      <c r="WA38"/>
+      <c r="WB38"/>
+      <c r="WC38"/>
+      <c r="WD38"/>
+      <c r="WE38"/>
+      <c r="WF38"/>
+      <c r="WG38"/>
+      <c r="WH38"/>
+      <c r="WI38"/>
+      <c r="WJ38"/>
+      <c r="WK38"/>
+      <c r="WL38"/>
+      <c r="WM38"/>
+      <c r="WN38"/>
+      <c r="WO38"/>
+      <c r="WP38"/>
+      <c r="WQ38"/>
+      <c r="WR38"/>
+      <c r="WS38"/>
+      <c r="WT38"/>
+      <c r="WU38"/>
+      <c r="WV38"/>
+      <c r="WW38"/>
+      <c r="WX38"/>
+      <c r="WY38"/>
+      <c r="WZ38"/>
+      <c r="XA38"/>
+      <c r="XB38"/>
+      <c r="XC38"/>
+      <c r="XD38"/>
+      <c r="XE38"/>
+      <c r="XF38"/>
+      <c r="XG38"/>
+      <c r="XH38"/>
+      <c r="XI38"/>
+      <c r="XJ38"/>
+      <c r="XK38"/>
+      <c r="XL38"/>
+      <c r="XM38"/>
+      <c r="XN38"/>
+      <c r="XO38"/>
+      <c r="XP38"/>
+      <c r="XQ38"/>
+      <c r="XR38"/>
+      <c r="XS38"/>
+      <c r="XT38"/>
+      <c r="XU38"/>
+      <c r="XV38"/>
+      <c r="XW38"/>
+      <c r="XX38"/>
+      <c r="XY38"/>
+      <c r="XZ38"/>
+      <c r="YA38"/>
+      <c r="YB38"/>
+      <c r="YC38"/>
+      <c r="YD38"/>
+      <c r="YE38"/>
+      <c r="YF38"/>
+      <c r="YG38"/>
+      <c r="YH38"/>
+      <c r="YI38"/>
+      <c r="YJ38"/>
+      <c r="YK38"/>
+      <c r="YL38"/>
+      <c r="YM38"/>
+      <c r="YN38"/>
+      <c r="YO38"/>
+      <c r="YP38"/>
+      <c r="YQ38"/>
+      <c r="YR38"/>
+      <c r="YS38"/>
+      <c r="YT38"/>
+      <c r="YU38"/>
+      <c r="YV38"/>
+      <c r="YW38"/>
+      <c r="YX38"/>
+      <c r="YY38"/>
+      <c r="YZ38"/>
+      <c r="ZA38"/>
+      <c r="ZB38"/>
+      <c r="ZC38"/>
+      <c r="ZD38"/>
+      <c r="ZE38"/>
+      <c r="ZF38"/>
+      <c r="ZG38"/>
+      <c r="ZH38"/>
+      <c r="ZI38"/>
+      <c r="ZJ38"/>
+      <c r="ZK38"/>
+      <c r="ZL38"/>
+      <c r="ZM38"/>
+      <c r="ZN38"/>
+      <c r="ZO38"/>
+      <c r="ZP38"/>
+      <c r="ZQ38"/>
+      <c r="ZR38"/>
+      <c r="ZS38"/>
+      <c r="ZT38"/>
+      <c r="ZU38"/>
+      <c r="ZV38"/>
+      <c r="ZW38"/>
+      <c r="ZX38"/>
+      <c r="ZY38"/>
+      <c r="ZZ38"/>
+      <c r="AAA38"/>
+      <c r="AAB38"/>
+      <c r="AAC38"/>
+      <c r="AAD38"/>
+      <c r="AAE38"/>
+      <c r="AAF38"/>
+      <c r="AAG38"/>
+      <c r="AAH38"/>
+      <c r="AAI38"/>
+      <c r="AAJ38"/>
+      <c r="AAK38"/>
+      <c r="AAL38"/>
+      <c r="AAM38"/>
+      <c r="AAN38"/>
+      <c r="AAO38"/>
+      <c r="AAP38"/>
+      <c r="AAQ38"/>
+      <c r="AAR38"/>
+      <c r="AAS38"/>
+      <c r="AAT38"/>
+      <c r="AAU38"/>
+      <c r="AAV38"/>
+      <c r="AAW38"/>
+      <c r="AAX38"/>
+      <c r="AAY38"/>
+      <c r="AAZ38"/>
+      <c r="ABA38"/>
+      <c r="ABB38"/>
+      <c r="ABC38"/>
+      <c r="ABD38"/>
+      <c r="ABE38"/>
+      <c r="ABF38"/>
+      <c r="ABG38"/>
+      <c r="ABH38"/>
+      <c r="ABI38"/>
+      <c r="ABJ38"/>
+      <c r="ABK38"/>
+      <c r="ABL38"/>
+      <c r="ABM38"/>
+      <c r="ABN38"/>
+      <c r="ABO38"/>
+      <c r="ABP38"/>
+      <c r="ABQ38"/>
+      <c r="ABR38"/>
+      <c r="ABS38"/>
+      <c r="ABT38"/>
+      <c r="ABU38"/>
+      <c r="ABV38"/>
+      <c r="ABW38"/>
+      <c r="ABX38"/>
+      <c r="ABY38"/>
+      <c r="ABZ38"/>
+      <c r="ACA38"/>
+      <c r="ACB38"/>
+      <c r="ACC38"/>
+      <c r="ACD38"/>
+      <c r="ACE38"/>
+      <c r="ACF38"/>
+      <c r="ACG38"/>
+      <c r="ACH38"/>
+      <c r="ACI38"/>
+      <c r="ACJ38"/>
+      <c r="ACK38"/>
+      <c r="ACL38"/>
+      <c r="ACM38"/>
+      <c r="ACN38"/>
+      <c r="ACO38"/>
+      <c r="ACP38"/>
+      <c r="ACQ38"/>
+      <c r="ACR38"/>
+      <c r="ACS38"/>
+      <c r="ACT38"/>
+      <c r="ACU38"/>
+      <c r="ACV38"/>
+      <c r="ACW38"/>
+      <c r="ACX38"/>
+      <c r="ACY38"/>
+      <c r="ACZ38"/>
+      <c r="ADA38"/>
+      <c r="ADB38"/>
+      <c r="ADC38"/>
+      <c r="ADD38"/>
+      <c r="ADE38"/>
+      <c r="ADF38"/>
+      <c r="ADG38"/>
+      <c r="ADH38"/>
+      <c r="ADI38"/>
+      <c r="ADJ38"/>
+      <c r="ADK38"/>
+      <c r="ADL38"/>
+      <c r="ADM38"/>
+      <c r="ADN38"/>
+      <c r="ADO38"/>
+      <c r="ADP38"/>
+      <c r="ADQ38"/>
+      <c r="ADR38"/>
+      <c r="ADS38"/>
+      <c r="ADT38"/>
+      <c r="ADU38"/>
+      <c r="ADV38"/>
+      <c r="ADW38"/>
+      <c r="ADX38"/>
+      <c r="ADY38"/>
+      <c r="ADZ38"/>
+      <c r="AEA38"/>
+      <c r="AEB38"/>
+      <c r="AEC38"/>
+      <c r="AED38"/>
+      <c r="AEE38"/>
+      <c r="AEF38"/>
+      <c r="AEG38"/>
+      <c r="AEH38"/>
+      <c r="AEI38"/>
+      <c r="AEJ38"/>
+      <c r="AEK38"/>
+      <c r="AEL38"/>
+      <c r="AEM38"/>
+      <c r="AEN38"/>
+      <c r="AEO38"/>
+      <c r="AEP38"/>
+      <c r="AEQ38"/>
+      <c r="AER38"/>
+      <c r="AES38"/>
+      <c r="AET38"/>
+      <c r="AEU38"/>
+      <c r="AEV38"/>
+      <c r="AEW38"/>
+      <c r="AEX38"/>
+      <c r="AEY38"/>
+      <c r="AEZ38"/>
+      <c r="AFA38"/>
+      <c r="AFB38"/>
+      <c r="AFC38"/>
+      <c r="AFD38"/>
+      <c r="AFE38"/>
+      <c r="AFF38"/>
+      <c r="AFG38"/>
+      <c r="AFH38"/>
+      <c r="AFI38"/>
+      <c r="AFJ38"/>
+      <c r="AFK38"/>
+      <c r="AFL38"/>
+      <c r="AFM38"/>
+      <c r="AFN38"/>
+      <c r="AFO38"/>
+      <c r="AFP38"/>
+      <c r="AFQ38"/>
+      <c r="AFR38"/>
+      <c r="AFS38"/>
+      <c r="AFT38"/>
+      <c r="AFU38"/>
+      <c r="AFV38"/>
+      <c r="AFW38"/>
+      <c r="AFX38"/>
+      <c r="AFY38"/>
+      <c r="AFZ38"/>
+      <c r="AGA38"/>
+      <c r="AGB38"/>
+      <c r="AGC38"/>
+      <c r="AGD38"/>
+      <c r="AGE38"/>
+      <c r="AGF38"/>
+      <c r="AGG38"/>
+      <c r="AGH38"/>
+      <c r="AGI38"/>
+      <c r="AGJ38"/>
+      <c r="AGK38"/>
+      <c r="AGL38"/>
+      <c r="AGM38"/>
+      <c r="AGN38"/>
+      <c r="AGO38"/>
+      <c r="AGP38"/>
+      <c r="AGQ38"/>
+      <c r="AGR38"/>
+      <c r="AGS38"/>
+      <c r="AGT38"/>
+      <c r="AGU38"/>
+      <c r="AGV38"/>
+      <c r="AGW38"/>
+      <c r="AGX38"/>
+      <c r="AGY38"/>
+      <c r="AGZ38"/>
+      <c r="AHA38"/>
+      <c r="AHB38"/>
+      <c r="AHC38"/>
+      <c r="AHD38"/>
+      <c r="AHE38"/>
+      <c r="AHF38"/>
+      <c r="AHG38"/>
+      <c r="AHH38"/>
+      <c r="AHI38"/>
+      <c r="AHJ38"/>
+      <c r="AHK38"/>
+      <c r="AHL38"/>
+      <c r="AHM38"/>
+      <c r="AHN38"/>
+      <c r="AHO38"/>
+      <c r="AHP38"/>
+      <c r="AHQ38"/>
+      <c r="AHR38"/>
+      <c r="AHS38"/>
+      <c r="AHT38"/>
+      <c r="AHU38"/>
+      <c r="AHV38"/>
+      <c r="AHW38"/>
+      <c r="AHX38"/>
+      <c r="AHY38"/>
+      <c r="AHZ38"/>
+      <c r="AIA38"/>
+      <c r="AIB38"/>
+      <c r="AIC38"/>
+      <c r="AID38"/>
+      <c r="AIE38"/>
+      <c r="AIF38"/>
+      <c r="AIG38"/>
+      <c r="AIH38"/>
+      <c r="AII38"/>
+      <c r="AIJ38"/>
+      <c r="AIK38"/>
+      <c r="AIL38"/>
+      <c r="AIM38"/>
+      <c r="AIN38"/>
+      <c r="AIO38"/>
+      <c r="AIP38"/>
+      <c r="AIQ38"/>
+      <c r="AIR38"/>
+      <c r="AIS38"/>
+      <c r="AIT38"/>
+      <c r="AIU38"/>
+      <c r="AIV38"/>
+      <c r="AIW38"/>
+      <c r="AIX38"/>
+      <c r="AIY38"/>
+      <c r="AIZ38"/>
+      <c r="AJA38"/>
+      <c r="AJB38"/>
+      <c r="AJC38"/>
+      <c r="AJD38"/>
+      <c r="AJE38"/>
+      <c r="AJF38"/>
+      <c r="AJG38"/>
+      <c r="AJH38"/>
+      <c r="AJI38"/>
+      <c r="AJJ38"/>
+      <c r="AJK38"/>
+      <c r="AJL38"/>
+      <c r="AJM38"/>
+      <c r="AJN38"/>
+      <c r="AJO38"/>
+      <c r="AJP38"/>
+      <c r="AJQ38"/>
+      <c r="AJR38"/>
+      <c r="AJS38"/>
+      <c r="AJT38"/>
+      <c r="AJU38"/>
+      <c r="AJV38"/>
+      <c r="AJW38"/>
+      <c r="AJX38"/>
+      <c r="AJY38"/>
+      <c r="AJZ38"/>
+      <c r="AKA38"/>
+      <c r="AKB38"/>
+      <c r="AKC38"/>
+      <c r="AKD38"/>
+      <c r="AKE38"/>
+      <c r="AKF38"/>
+      <c r="AKG38"/>
+      <c r="AKH38"/>
+      <c r="AKI38"/>
+      <c r="AKJ38"/>
+      <c r="AKK38"/>
+      <c r="AKL38"/>
+      <c r="AKM38"/>
+      <c r="AKN38"/>
+      <c r="AKO38"/>
+      <c r="AKP38"/>
+      <c r="AKQ38"/>
+      <c r="AKR38"/>
+      <c r="AKS38"/>
+      <c r="AKT38"/>
+      <c r="AKU38"/>
+      <c r="AKV38"/>
+      <c r="AKW38"/>
+      <c r="AKX38"/>
+      <c r="AKY38"/>
+      <c r="AKZ38"/>
+      <c r="ALA38"/>
+      <c r="ALB38"/>
+      <c r="ALC38"/>
+      <c r="ALD38"/>
+      <c r="ALE38"/>
+      <c r="ALF38"/>
+      <c r="ALG38"/>
+      <c r="ALH38"/>
+      <c r="ALI38"/>
+      <c r="ALJ38"/>
+      <c r="ALK38"/>
+      <c r="ALL38"/>
+      <c r="ALM38"/>
+      <c r="ALN38"/>
+      <c r="ALO38"/>
+      <c r="ALP38"/>
+      <c r="ALQ38"/>
+      <c r="ALR38"/>
+      <c r="ALS38"/>
+      <c r="ALT38"/>
+      <c r="ALU38"/>
+      <c r="ALV38"/>
+      <c r="ALW38"/>
+      <c r="ALX38"/>
+      <c r="ALY38"/>
+      <c r="ALZ38"/>
+      <c r="AMA38"/>
+      <c r="AMB38"/>
+      <c r="AMC38"/>
     </row>
     <row r="39" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -5339,7 +7758,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>297</v>
       </c>
@@ -5347,8 +7766,655 @@
         <v>298</v>
       </c>
     </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="1.143700787401575" bottom="1.143700787401575" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">

--- a/data/cci/cci-product.xlsx
+++ b/data/cci/cci-product.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/diane_knappett_stfc_ac_uk/Documents/Documents/projects/2022_CCI_Open_Data_Portal/vocab_updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0ECA83B-F5D8-7646-99AD-7B7894EABA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A0ECA83B-F5D8-7646-99AD-7B7894EABA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5850F9-71C3-430D-A3A4-C42433DED742}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="474">
   <si>
     <t>URI</t>
   </si>
@@ -1430,6 +1430,18 @@
   </si>
   <si>
     <t>AVHRR_TIROSN</t>
+  </si>
+  <si>
+    <t>NIMBUS5_ESMR_EASE2_LDTPcorrected_NH</t>
+  </si>
+  <si>
+    <t>NIMBUS5_ESMR_EASE2_LDTPcorrected_SH</t>
+  </si>
+  <si>
+    <t>prod_nimEsmrLCorNH</t>
+  </si>
+  <si>
+    <t>prod_nimEsmrLCorSH</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1670,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1666,13 +1678,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1682,13 +1691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="7" xr:uid="{2512F336-722D-FE46-9313-E88B0FECBCED}"/>
@@ -2058,22 +2060,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
-  <dimension ref="A1:AMJ193"/>
+  <dimension ref="A1:AMC195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.5" style="2" customWidth="1"/>
-    <col min="5" max="1016" width="10.6640625" style="2" customWidth="1"/>
-    <col min="1017" max="1017" width="13.33203125" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="2" customWidth="1"/>
+    <col min="5" max="1016" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1017" max="1017" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2090,277 +2094,277 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:64" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2370,223 +2374,164 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="9"/>
-    </row>
-    <row r="27" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="9"/>
-      <c r="AU35" s="9"/>
-      <c r="AV35" s="9"/>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="9"/>
-      <c r="AZ35" s="9"/>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="9"/>
-      <c r="BD35" s="9"/>
-      <c r="BE35" s="9"/>
-      <c r="BF35" s="9"/>
-      <c r="BG35" s="9"/>
-      <c r="BH35" s="9"/>
-      <c r="BI35" s="9"/>
-      <c r="BJ35" s="9"/>
-      <c r="BK35" s="9"/>
-      <c r="BL35" s="9"/>
       <c r="BM35"/>
       <c r="BN35"/>
       <c r="BO35"/>
@@ -3540,83 +3485,17 @@
       <c r="AMA35"/>
       <c r="AMB35"/>
       <c r="AMC35"/>
-      <c r="AMD35" s="11"/>
-      <c r="AME35" s="11"/>
-      <c r="AMF35" s="11"/>
-      <c r="AMG35" s="11"/>
-      <c r="AMH35" s="11"/>
-      <c r="AMI35" s="11"/>
-      <c r="AMJ35" s="11"/>
-    </row>
-    <row r="36" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="9"/>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="9"/>
-      <c r="AN36" s="9"/>
-      <c r="AO36" s="9"/>
-      <c r="AP36" s="9"/>
-      <c r="AQ36" s="9"/>
-      <c r="AR36" s="9"/>
-      <c r="AS36" s="9"/>
-      <c r="AT36" s="9"/>
-      <c r="AU36" s="9"/>
-      <c r="AV36" s="9"/>
-      <c r="AW36" s="9"/>
-      <c r="AX36" s="9"/>
-      <c r="AY36" s="9"/>
-      <c r="AZ36" s="9"/>
-      <c r="BA36" s="9"/>
-      <c r="BB36" s="9"/>
-      <c r="BC36" s="9"/>
-      <c r="BD36" s="9"/>
-      <c r="BE36" s="9"/>
-      <c r="BF36" s="9"/>
-      <c r="BG36" s="9"/>
-      <c r="BH36" s="9"/>
-      <c r="BI36" s="9"/>
-      <c r="BJ36" s="9"/>
-      <c r="BK36" s="9"/>
-      <c r="BL36" s="9"/>
       <c r="BM36"/>
       <c r="BN36"/>
       <c r="BO36"/>
@@ -4570,83 +4449,17 @@
       <c r="AMA36"/>
       <c r="AMB36"/>
       <c r="AMC36"/>
-      <c r="AMD36" s="11"/>
-      <c r="AME36" s="11"/>
-      <c r="AMF36" s="11"/>
-      <c r="AMG36" s="11"/>
-      <c r="AMH36" s="11"/>
-      <c r="AMI36" s="11"/>
-      <c r="AMJ36" s="11"/>
-    </row>
-    <row r="37" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="9"/>
-      <c r="AL37" s="9"/>
-      <c r="AM37" s="9"/>
-      <c r="AN37" s="9"/>
-      <c r="AO37" s="9"/>
-      <c r="AP37" s="9"/>
-      <c r="AQ37" s="9"/>
-      <c r="AR37" s="9"/>
-      <c r="AS37" s="9"/>
-      <c r="AT37" s="9"/>
-      <c r="AU37" s="9"/>
-      <c r="AV37" s="9"/>
-      <c r="AW37" s="9"/>
-      <c r="AX37" s="9"/>
-      <c r="AY37" s="9"/>
-      <c r="AZ37" s="9"/>
-      <c r="BA37" s="9"/>
-      <c r="BB37" s="9"/>
-      <c r="BC37" s="9"/>
-      <c r="BD37" s="9"/>
-      <c r="BE37" s="9"/>
-      <c r="BF37" s="9"/>
-      <c r="BG37" s="9"/>
-      <c r="BH37" s="9"/>
-      <c r="BI37" s="9"/>
-      <c r="BJ37" s="9"/>
-      <c r="BK37" s="9"/>
-      <c r="BL37" s="9"/>
       <c r="BM37"/>
       <c r="BN37"/>
       <c r="BO37"/>
@@ -5601,75 +5414,16 @@
       <c r="AMB37"/>
       <c r="AMC37"/>
     </row>
-    <row r="38" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="9"/>
-      <c r="AP38" s="9"/>
-      <c r="AQ38" s="9"/>
-      <c r="AR38" s="9"/>
-      <c r="AS38" s="9"/>
-      <c r="AT38" s="9"/>
-      <c r="AU38" s="9"/>
-      <c r="AV38" s="9"/>
-      <c r="AW38" s="9"/>
-      <c r="AX38" s="9"/>
-      <c r="AY38" s="9"/>
-      <c r="AZ38" s="9"/>
-      <c r="BA38" s="9"/>
-      <c r="BB38" s="9"/>
-      <c r="BC38" s="9"/>
-      <c r="BD38" s="9"/>
-      <c r="BE38" s="9"/>
-      <c r="BF38" s="9"/>
-      <c r="BG38" s="9"/>
-      <c r="BH38" s="9"/>
-      <c r="BI38" s="9"/>
-      <c r="BJ38" s="9"/>
-      <c r="BK38" s="9"/>
-      <c r="BL38" s="9"/>
       <c r="BM38"/>
       <c r="BN38"/>
       <c r="BO38"/>
@@ -6624,77 +6378,77 @@
       <c r="AMB38"/>
       <c r="AMC38"/>
     </row>
-    <row r="39" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6707,162 +6461,162 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:64" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
@@ -6872,139 +6626,139 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
-      <c r="AH59" s="9"/>
-      <c r="AI59" s="9"/>
-      <c r="AJ59" s="9"/>
-      <c r="AK59" s="9"/>
-      <c r="AL59" s="9"/>
-      <c r="AM59" s="9"/>
-      <c r="AN59" s="9"/>
-      <c r="AO59" s="9"/>
-      <c r="AP59" s="9"/>
-      <c r="AQ59" s="9"/>
-      <c r="AR59" s="9"/>
-      <c r="AS59" s="9"/>
-      <c r="AT59" s="9"/>
-      <c r="AU59" s="9"/>
-      <c r="AV59" s="9"/>
-      <c r="AW59" s="9"/>
-      <c r="AX59" s="9"/>
-      <c r="AY59" s="9"/>
-      <c r="AZ59" s="9"/>
-      <c r="BA59" s="9"/>
-      <c r="BB59" s="9"/>
-      <c r="BC59" s="9"/>
-      <c r="BD59" s="9"/>
-      <c r="BE59" s="9"/>
-      <c r="BF59" s="9"/>
-      <c r="BG59" s="9"/>
-      <c r="BH59" s="9"/>
-      <c r="BI59" s="9"/>
-      <c r="BJ59" s="9"/>
-      <c r="BK59" s="9"/>
-      <c r="BL59" s="9"/>
-    </row>
-    <row r="60" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59" s="2"/>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:64" ht="32" x14ac:dyDescent="0.2">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:64" ht="32" x14ac:dyDescent="0.2">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -7015,97 +6769,97 @@
       <c r="D66" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -7116,20 +6870,20 @@
       <c r="D75" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:64" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -7139,111 +6893,111 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="9"/>
-      <c r="AF77" s="9"/>
-      <c r="AG77" s="9"/>
-      <c r="AH77" s="9"/>
-      <c r="AI77" s="9"/>
-      <c r="AJ77" s="9"/>
-      <c r="AK77" s="9"/>
-      <c r="AL77" s="9"/>
-      <c r="AM77" s="9"/>
-      <c r="AN77" s="9"/>
-      <c r="AO77" s="9"/>
-      <c r="AP77" s="9"/>
-      <c r="AQ77" s="9"/>
-      <c r="AR77" s="9"/>
-      <c r="AS77" s="9"/>
-      <c r="AT77" s="9"/>
-      <c r="AU77" s="9"/>
-      <c r="AV77" s="9"/>
-      <c r="AW77" s="9"/>
-      <c r="AX77" s="9"/>
-      <c r="AY77" s="9"/>
-      <c r="AZ77" s="9"/>
-      <c r="BA77" s="9"/>
-      <c r="BB77" s="9"/>
-      <c r="BC77" s="9"/>
-      <c r="BD77" s="9"/>
-      <c r="BE77" s="9"/>
-      <c r="BF77" s="9"/>
-      <c r="BG77" s="9"/>
-      <c r="BH77" s="9"/>
-      <c r="BI77" s="9"/>
-      <c r="BJ77" s="9"/>
-      <c r="BK77" s="9"/>
-      <c r="BL77" s="9"/>
-    </row>
-    <row r="78" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="2"/>
+      <c r="AO77" s="2"/>
+      <c r="AP77" s="2"/>
+      <c r="AQ77" s="2"/>
+      <c r="AR77" s="2"/>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="2"/>
+      <c r="AU77" s="2"/>
+      <c r="AV77" s="2"/>
+      <c r="AW77" s="2"/>
+      <c r="AX77" s="2"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="2"/>
+      <c r="BA77" s="2"/>
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="2"/>
+      <c r="BD77" s="2"/>
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="2"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+      <c r="BJ77" s="2"/>
+      <c r="BK77" s="2"/>
+      <c r="BL77" s="2"/>
+    </row>
+    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -7254,9 +7008,9 @@
       <c r="D82" t="s">
         <v>183</v>
       </c>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -7267,127 +7021,127 @@
       <c r="D83" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -7398,42 +7152,42 @@
       <c r="D94" t="s">
         <v>213</v>
       </c>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -7444,123 +7198,123 @@
       <c r="D98" t="s">
         <v>222</v>
       </c>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>245</v>
       </c>
@@ -7571,10 +7325,10 @@
       <c r="D109" t="s">
         <v>247</v>
       </c>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -7584,7 +7338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>251</v>
       </c>
@@ -7592,7 +7346,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>253</v>
       </c>
@@ -7603,7 +7357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>256</v>
       </c>
@@ -7614,7 +7368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>259</v>
       </c>
@@ -7625,7 +7379,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>262</v>
       </c>
@@ -7636,7 +7390,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>265</v>
       </c>
@@ -7647,7 +7401,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>268</v>
       </c>
@@ -7658,7 +7412,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>271</v>
       </c>
@@ -7669,7 +7423,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>274</v>
       </c>
@@ -7680,7 +7434,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>277</v>
       </c>
@@ -7691,7 +7445,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>280</v>
       </c>
@@ -7699,7 +7453,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>282</v>
       </c>
@@ -7707,7 +7461,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>284</v>
       </c>
@@ -7715,7 +7469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>286</v>
       </c>
@@ -7723,7 +7477,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>288</v>
       </c>
@@ -7731,7 +7485,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>290</v>
       </c>
@@ -7742,7 +7496,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>293</v>
       </c>
@@ -7750,7 +7504,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>295</v>
       </c>
@@ -7758,7 +7512,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>297</v>
       </c>
@@ -7766,7 +7520,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>299</v>
       </c>
@@ -7774,7 +7528,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>301</v>
       </c>
@@ -7785,7 +7539,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>304</v>
       </c>
@@ -7796,7 +7550,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>307</v>
       </c>
@@ -7807,7 +7561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>310</v>
       </c>
@@ -7818,7 +7572,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>313</v>
       </c>
@@ -7829,7 +7583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>316</v>
       </c>
@@ -7840,7 +7594,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>319</v>
       </c>
@@ -7851,7 +7605,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>322</v>
       </c>
@@ -7862,7 +7616,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>325</v>
       </c>
@@ -7873,7 +7627,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>328</v>
       </c>
@@ -7884,7 +7638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>331</v>
       </c>
@@ -7895,7 +7649,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>334</v>
       </c>
@@ -7906,7 +7660,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>337</v>
       </c>
@@ -7917,7 +7671,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>340</v>
       </c>
@@ -7928,7 +7682,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>343</v>
       </c>
@@ -7939,7 +7693,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>346</v>
       </c>
@@ -7950,7 +7704,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>349</v>
       </c>
@@ -7961,7 +7715,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>352</v>
       </c>
@@ -7972,7 +7726,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>355</v>
       </c>
@@ -7983,7 +7737,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
@@ -7994,7 +7748,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>361</v>
       </c>
@@ -8005,7 +7759,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>364</v>
       </c>
@@ -8016,7 +7770,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>367</v>
       </c>
@@ -8027,7 +7781,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>370</v>
       </c>
@@ -8038,7 +7792,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>373</v>
       </c>
@@ -8049,7 +7803,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>376</v>
       </c>
@@ -8060,7 +7814,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>379</v>
       </c>
@@ -8071,7 +7825,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>382</v>
       </c>
@@ -8082,7 +7836,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>385</v>
       </c>
@@ -8093,7 +7847,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>388</v>
       </c>
@@ -8104,40 +7858,40 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>400</v>
       </c>
@@ -8148,7 +7902,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>403</v>
       </c>
@@ -8159,7 +7913,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>405</v>
       </c>
@@ -8170,7 +7924,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>407</v>
       </c>
@@ -8178,7 +7932,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>409</v>
       </c>
@@ -8186,7 +7940,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>411</v>
       </c>
@@ -8197,7 +7951,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>414</v>
       </c>
@@ -8208,7 +7962,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>417</v>
       </c>
@@ -8219,7 +7973,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>420</v>
       </c>
@@ -8230,7 +7984,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>423</v>
       </c>
@@ -8241,7 +7995,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>426</v>
       </c>
@@ -8252,7 +8006,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>429</v>
       </c>
@@ -8263,7 +8017,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>432</v>
       </c>
@@ -8274,7 +8028,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>435</v>
       </c>
@@ -8285,7 +8039,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>438</v>
       </c>
@@ -8293,7 +8047,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>440</v>
       </c>
@@ -8301,7 +8055,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>442</v>
       </c>
@@ -8309,7 +8063,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>444</v>
       </c>
@@ -8317,7 +8071,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>446</v>
       </c>
@@ -8325,7 +8079,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>448</v>
       </c>
@@ -8333,7 +8087,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>450</v>
       </c>
@@ -8341,7 +8095,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>452</v>
       </c>
@@ -8349,7 +8103,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>454</v>
       </c>
@@ -8357,7 +8111,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>456</v>
       </c>
@@ -8365,7 +8119,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>458</v>
       </c>
@@ -8373,7 +8127,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>460</v>
       </c>
@@ -8381,7 +8135,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>462</v>
       </c>
@@ -8389,7 +8143,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>464</v>
       </c>
@@ -8397,7 +8151,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>466</v>
       </c>
@@ -8405,12 +8159,28 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/data/cci/cci-product.xlsx
+++ b/data/cci/cci-product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/diane_knappett_stfc_ac_uk/Documents/Documents/projects/2022_CCI_Open_Data_Portal/vocab_updates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A0ECA83B-F5D8-7646-99AD-7B7894EABA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5850F9-71C3-430D-A3A4-C42433DED742}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C577A2-6DCC-4863-B9A9-FA02136E6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="480">
   <si>
     <t>URI</t>
   </si>
@@ -1442,6 +1442,24 @@
   </si>
   <si>
     <t>prod_nimEsmrLCorSH</t>
+  </si>
+  <si>
+    <t>prod_viirs0</t>
+  </si>
+  <si>
+    <t>prod_viirs1</t>
+  </si>
+  <si>
+    <t>VIIRS0</t>
+  </si>
+  <si>
+    <t>VIIRS1</t>
+  </si>
+  <si>
+    <t>VIIRS sensor onboard SNPP</t>
+  </si>
+  <si>
+    <t>VIIRS sensor onboard NOAA-20</t>
   </si>
 </sst>
 </file>
@@ -2060,24 +2078,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
-  <dimension ref="A1:AMC195"/>
+  <dimension ref="A1:AMC197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="2" customWidth="1"/>
-    <col min="5" max="1016" width="10.7109375" style="2" customWidth="1"/>
-    <col min="1017" max="1017" width="13.28515625" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.453125" style="2" customWidth="1"/>
+    <col min="5" max="1016" width="10.7265625" style="2" customWidth="1"/>
+    <col min="1017" max="1017" width="13.26953125" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2105,7 +2123,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2118,7 +2136,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2129,7 +2147,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2140,7 +2158,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2169,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2162,7 +2180,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2173,7 +2191,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2184,7 +2202,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2195,7 +2213,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2206,7 +2224,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2235,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2228,7 +2246,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2257,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2250,7 +2268,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2261,7 +2279,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2292,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -2285,7 +2303,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2296,7 +2314,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -2307,7 +2325,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2318,7 +2336,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2329,7 +2347,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2340,7 +2358,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2353,7 +2371,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -2364,7 +2382,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2434,7 +2452,7 @@
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -2445,7 +2463,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
@@ -2456,7 +2474,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -2467,7 +2485,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -2478,7 +2496,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2489,7 +2507,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2518,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -2511,7 +2529,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -2522,7 +2540,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -3486,7 +3504,7 @@
       <c r="AMB35"/>
       <c r="AMC35"/>
     </row>
-    <row r="36" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
@@ -4450,7 +4468,7 @@
       <c r="AMB36"/>
       <c r="AMC36"/>
     </row>
-    <row r="37" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
@@ -5414,7 +5432,7 @@
       <c r="AMB37"/>
       <c r="AMC37"/>
     </row>
-    <row r="38" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
@@ -6378,7 +6396,7 @@
       <c r="AMB38"/>
       <c r="AMC38"/>
     </row>
-    <row r="39" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
@@ -6389,7 +6407,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -6402,7 +6420,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
@@ -6413,7 +6431,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
@@ -6424,7 +6442,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -6437,7 +6455,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
@@ -6448,7 +6466,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6461,7 +6479,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -6472,7 +6490,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
@@ -6483,7 +6501,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:1017" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1017" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
@@ -6496,7 +6514,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
@@ -6507,7 +6525,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
@@ -6518,7 +6536,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
@@ -6529,7 +6547,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
@@ -6540,7 +6558,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
@@ -6551,7 +6569,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>116</v>
       </c>
@@ -6564,7 +6582,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
@@ -6577,7 +6595,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>122</v>
       </c>
@@ -6590,7 +6608,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
@@ -6603,7 +6621,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -6616,7 +6634,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
@@ -6686,7 +6704,7 @@
       <c r="BK59" s="2"/>
       <c r="BL59" s="2"/>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -6697,7 +6715,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -6708,7 +6726,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -6719,7 +6737,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -6732,7 +6750,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -6745,7 +6763,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>145</v>
       </c>
@@ -6758,7 +6776,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -6771,7 +6789,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>151</v>
       </c>
@@ -6782,7 +6800,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>153</v>
       </c>
@@ -6793,7 +6811,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>155</v>
       </c>
@@ -6804,7 +6822,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>157</v>
       </c>
@@ -6815,7 +6833,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>159</v>
       </c>
@@ -6826,7 +6844,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
@@ -6837,7 +6855,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>163</v>
       </c>
@@ -6848,7 +6866,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>165</v>
       </c>
@@ -6859,7 +6877,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -6872,7 +6890,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>169</v>
       </c>
@@ -6883,7 +6901,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -6953,7 +6971,7 @@
       <c r="BK77" s="2"/>
       <c r="BL77" s="2"/>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>173</v>
       </c>
@@ -6964,7 +6982,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>175</v>
       </c>
@@ -6975,7 +6993,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>177</v>
       </c>
@@ -6986,7 +7004,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>179</v>
       </c>
@@ -6997,7 +7015,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -7010,7 +7028,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -7023,7 +7041,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>187</v>
       </c>
@@ -7034,7 +7052,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>189</v>
       </c>
@@ -7045,7 +7063,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>191</v>
       </c>
@@ -7058,7 +7076,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>194</v>
       </c>
@@ -7071,7 +7089,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>197</v>
       </c>
@@ -7084,7 +7102,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>200</v>
       </c>
@@ -7097,7 +7115,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>203</v>
       </c>
@@ -7108,7 +7126,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>205</v>
       </c>
@@ -7119,7 +7137,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>207</v>
       </c>
@@ -7130,7 +7148,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>209</v>
       </c>
@@ -7141,7 +7159,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -7154,7 +7172,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>214</v>
       </c>
@@ -7165,7 +7183,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>216</v>
       </c>
@@ -7176,7 +7194,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>218</v>
       </c>
@@ -7187,7 +7205,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -7200,7 +7218,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>223</v>
       </c>
@@ -7211,7 +7229,7 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>225</v>
       </c>
@@ -7222,7 +7240,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>227</v>
       </c>
@@ -7233,7 +7251,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>229</v>
       </c>
@@ -7244,7 +7262,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>231</v>
       </c>
@@ -7257,7 +7275,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>234</v>
       </c>
@@ -7270,7 +7288,7 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>237</v>
       </c>
@@ -7281,7 +7299,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>239</v>
       </c>
@@ -7292,7 +7310,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
@@ -7303,7 +7321,7 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>243</v>
       </c>
@@ -7314,7 +7332,7 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>245</v>
       </c>
@@ -7327,7 +7345,7 @@
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>248</v>
       </c>
@@ -7338,7 +7356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>251</v>
       </c>
@@ -7346,7 +7364,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>253</v>
       </c>
@@ -7357,7 +7375,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>256</v>
       </c>
@@ -7368,7 +7386,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>259</v>
       </c>
@@ -7379,7 +7397,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>262</v>
       </c>
@@ -7390,7 +7408,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>265</v>
       </c>
@@ -7401,7 +7419,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>268</v>
       </c>
@@ -7412,7 +7430,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>271</v>
       </c>
@@ -7423,7 +7441,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>274</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>277</v>
       </c>
@@ -7445,7 +7463,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>280</v>
       </c>
@@ -7453,7 +7471,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>282</v>
       </c>
@@ -7461,7 +7479,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>284</v>
       </c>
@@ -7469,7 +7487,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>286</v>
       </c>
@@ -7477,7 +7495,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>288</v>
       </c>
@@ -7485,7 +7503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>290</v>
       </c>
@@ -7496,7 +7514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>293</v>
       </c>
@@ -7504,7 +7522,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>295</v>
       </c>
@@ -7512,7 +7530,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>297</v>
       </c>
@@ -7520,7 +7538,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>299</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>301</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>304</v>
       </c>
@@ -7550,7 +7568,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>307</v>
       </c>
@@ -7561,7 +7579,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>310</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>313</v>
       </c>
@@ -7583,7 +7601,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>316</v>
       </c>
@@ -7594,7 +7612,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>319</v>
       </c>
@@ -7605,7 +7623,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>322</v>
       </c>
@@ -7616,7 +7634,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>325</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>328</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>331</v>
       </c>
@@ -7649,7 +7667,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>334</v>
       </c>
@@ -7660,7 +7678,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>337</v>
       </c>
@@ -7671,7 +7689,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>340</v>
       </c>
@@ -7682,7 +7700,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>343</v>
       </c>
@@ -7693,7 +7711,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>346</v>
       </c>
@@ -7704,7 +7722,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>349</v>
       </c>
@@ -7715,7 +7733,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>352</v>
       </c>
@@ -7726,7 +7744,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>355</v>
       </c>
@@ -7737,7 +7755,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
@@ -7748,7 +7766,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>361</v>
       </c>
@@ -7759,7 +7777,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>364</v>
       </c>
@@ -7770,7 +7788,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>367</v>
       </c>
@@ -7781,7 +7799,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>370</v>
       </c>
@@ -7792,7 +7810,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>373</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>376</v>
       </c>
@@ -7814,7 +7832,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>379</v>
       </c>
@@ -7825,7 +7843,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>382</v>
       </c>
@@ -7836,7 +7854,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>385</v>
       </c>
@@ -7847,7 +7865,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>388</v>
       </c>
@@ -7858,7 +7876,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>391</v>
       </c>
@@ -7869,7 +7887,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>394</v>
       </c>
@@ -7880,7 +7898,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>397</v>
       </c>
@@ -7891,7 +7909,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>400</v>
       </c>
@@ -7902,7 +7920,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>403</v>
       </c>
@@ -7913,7 +7931,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>405</v>
       </c>
@@ -7924,7 +7942,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>407</v>
       </c>
@@ -7932,7 +7950,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>409</v>
       </c>
@@ -7940,7 +7958,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>411</v>
       </c>
@@ -7951,7 +7969,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>414</v>
       </c>
@@ -7962,7 +7980,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>417</v>
       </c>
@@ -7973,7 +7991,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>420</v>
       </c>
@@ -7984,7 +8002,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>423</v>
       </c>
@@ -7995,7 +8013,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>426</v>
       </c>
@@ -8006,7 +8024,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>429</v>
       </c>
@@ -8017,7 +8035,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>432</v>
       </c>
@@ -8028,7 +8046,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>435</v>
       </c>
@@ -8039,7 +8057,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>438</v>
       </c>
@@ -8047,7 +8065,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>440</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>442</v>
       </c>
@@ -8063,7 +8081,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>444</v>
       </c>
@@ -8071,7 +8089,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>446</v>
       </c>
@@ -8079,7 +8097,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>448</v>
       </c>
@@ -8087,7 +8105,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>450</v>
       </c>
@@ -8095,7 +8113,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>452</v>
       </c>
@@ -8103,7 +8121,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>454</v>
       </c>
@@ -8111,7 +8129,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>456</v>
       </c>
@@ -8119,7 +8137,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>458</v>
       </c>
@@ -8127,7 +8145,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>460</v>
       </c>
@@ -8135,7 +8153,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>462</v>
       </c>
@@ -8143,7 +8161,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>464</v>
       </c>
@@ -8151,7 +8169,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>466</v>
       </c>
@@ -8159,7 +8177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>468</v>
       </c>
@@ -8167,7 +8185,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>472</v>
       </c>
@@ -8175,12 +8193,34 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/data/cci/cci-product.xlsx
+++ b/data/cci/cci-product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C577A2-6DCC-4863-B9A9-FA02136E6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E2C577A2-6DCC-4863-B9A9-FA02136E6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2CED3B9-5691-489C-A84F-6D9D802D9705}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="482">
   <si>
     <t>URI</t>
   </si>
@@ -1460,6 +1460,12 @@
   </si>
   <si>
     <t>VIIRS sensor onboard NOAA-20</t>
+  </si>
+  <si>
+    <t>IASI_MOPITT_MERGED_LATMOS-180x360_1M</t>
+  </si>
+  <si>
+    <t>prod_iasiMopittLatmos1M</t>
   </si>
 </sst>
 </file>
@@ -2078,24 +2084,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
-  <dimension ref="A1:AMC197"/>
+  <dimension ref="A1:AMC198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.453125" style="2" customWidth="1"/>
-    <col min="5" max="1016" width="10.7265625" style="2" customWidth="1"/>
-    <col min="1017" max="1017" width="13.26953125" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="2" customWidth="1"/>
+    <col min="5" max="1016" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1017" max="1017" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2129,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2142,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2153,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2164,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2175,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2186,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2191,7 +2197,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +2208,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +2219,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2230,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2235,7 +2241,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2252,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2257,7 +2263,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2268,7 +2274,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2279,7 +2285,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2292,7 +2298,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2314,7 +2320,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -2325,7 +2331,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2342,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2347,7 +2353,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2358,7 +2364,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2371,7 +2377,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -2382,7 +2388,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2452,7 +2458,7 @@
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -2463,7 +2469,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
@@ -2474,7 +2480,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -2485,7 +2491,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2507,7 +2513,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -2518,7 +2524,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -2529,7 +2535,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -2540,7 +2546,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -3504,7 +3510,7 @@
       <c r="AMB35"/>
       <c r="AMC35"/>
     </row>
-    <row r="36" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
@@ -4468,7 +4474,7 @@
       <c r="AMB36"/>
       <c r="AMC36"/>
     </row>
-    <row r="37" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
@@ -5432,7 +5438,7 @@
       <c r="AMB37"/>
       <c r="AMC37"/>
     </row>
-    <row r="38" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
@@ -6396,7 +6402,7 @@
       <c r="AMB38"/>
       <c r="AMC38"/>
     </row>
-    <row r="39" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
@@ -6407,7 +6413,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -6420,7 +6426,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
@@ -6431,7 +6437,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
@@ -6442,7 +6448,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -6455,7 +6461,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
@@ -6466,7 +6472,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6479,7 +6485,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -6490,7 +6496,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
@@ -6501,7 +6507,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:1017" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
@@ -6514,7 +6520,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
@@ -6525,7 +6531,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
@@ -6536,7 +6542,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
@@ -6547,7 +6553,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
@@ -6558,7 +6564,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
@@ -6569,7 +6575,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>116</v>
       </c>
@@ -6582,7 +6588,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
@@ -6595,7 +6601,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>122</v>
       </c>
@@ -6608,7 +6614,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>125</v>
       </c>
@@ -6621,7 +6627,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -6634,7 +6640,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
@@ -6704,7 +6710,7 @@
       <c r="BK59" s="2"/>
       <c r="BL59" s="2"/>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -6715,7 +6721,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -6726,7 +6732,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -6737,7 +6743,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -6750,7 +6756,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:64" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -6763,7 +6769,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:64" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>145</v>
       </c>
@@ -6776,7 +6782,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -6789,7 +6795,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>151</v>
       </c>
@@ -6800,7 +6806,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>153</v>
       </c>
@@ -6811,7 +6817,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>155</v>
       </c>
@@ -6822,7 +6828,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>157</v>
       </c>
@@ -6833,7 +6839,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>159</v>
       </c>
@@ -6844,7 +6850,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
@@ -6855,7 +6861,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>163</v>
       </c>
@@ -6866,7 +6872,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>165</v>
       </c>
@@ -6877,7 +6883,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -6890,7 +6896,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>169</v>
       </c>
@@ -6901,7 +6907,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -6971,7 +6977,7 @@
       <c r="BK77" s="2"/>
       <c r="BL77" s="2"/>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>173</v>
       </c>
@@ -6982,7 +6988,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>175</v>
       </c>
@@ -6993,7 +6999,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>177</v>
       </c>
@@ -7004,7 +7010,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>179</v>
       </c>
@@ -7015,7 +7021,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -7028,7 +7034,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -7041,7 +7047,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>187</v>
       </c>
@@ -7052,7 +7058,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>189</v>
       </c>
@@ -7063,7 +7069,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>191</v>
       </c>
@@ -7076,7 +7082,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>194</v>
       </c>
@@ -7089,7 +7095,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>197</v>
       </c>
@@ -7102,7 +7108,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>200</v>
       </c>
@@ -7115,7 +7121,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>203</v>
       </c>
@@ -7126,7 +7132,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>205</v>
       </c>
@@ -7137,7 +7143,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>207</v>
       </c>
@@ -7148,7 +7154,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>209</v>
       </c>
@@ -7159,7 +7165,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -7172,7 +7178,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>214</v>
       </c>
@@ -7183,7 +7189,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>216</v>
       </c>
@@ -7194,7 +7200,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>218</v>
       </c>
@@ -7205,7 +7211,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -7218,7 +7224,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>223</v>
       </c>
@@ -7229,7 +7235,7 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>225</v>
       </c>
@@ -7240,7 +7246,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>227</v>
       </c>
@@ -7251,7 +7257,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>229</v>
       </c>
@@ -7262,7 +7268,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>231</v>
       </c>
@@ -7275,7 +7281,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>234</v>
       </c>
@@ -7288,7 +7294,7 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>237</v>
       </c>
@@ -7299,7 +7305,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>239</v>
       </c>
@@ -7310,7 +7316,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
@@ -7321,7 +7327,7 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>243</v>
       </c>
@@ -7332,7 +7338,7 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>245</v>
       </c>
@@ -7345,7 +7351,7 @@
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>248</v>
       </c>
@@ -7356,7 +7362,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>251</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>253</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>256</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>259</v>
       </c>
@@ -7397,7 +7403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>262</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>265</v>
       </c>
@@ -7419,7 +7425,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>268</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>271</v>
       </c>
@@ -7441,7 +7447,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>274</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>277</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>280</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>282</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>284</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>286</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>288</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>290</v>
       </c>
@@ -7514,7 +7520,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>293</v>
       </c>
@@ -7522,7 +7528,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>295</v>
       </c>
@@ -7530,7 +7536,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>297</v>
       </c>
@@ -7538,7 +7544,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>299</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>301</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>304</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>307</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>310</v>
       </c>
@@ -7590,7 +7596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>313</v>
       </c>
@@ -7601,7 +7607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>316</v>
       </c>
@@ -7612,7 +7618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>319</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>322</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>325</v>
       </c>
@@ -7645,7 +7651,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>328</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>331</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>334</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>337</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>340</v>
       </c>
@@ -7700,7 +7706,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>343</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>346</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>349</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>352</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>355</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>361</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>364</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>367</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>370</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>373</v>
       </c>
@@ -7821,7 +7827,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>376</v>
       </c>
@@ -7832,7 +7838,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>379</v>
       </c>
@@ -7843,7 +7849,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>382</v>
       </c>
@@ -7854,7 +7860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>385</v>
       </c>
@@ -7865,7 +7871,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>388</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>391</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>394</v>
       </c>
@@ -7898,7 +7904,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>397</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>400</v>
       </c>
@@ -7920,7 +7926,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>403</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>405</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>407</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>409</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>411</v>
       </c>
@@ -7969,7 +7975,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>414</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>417</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>420</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>423</v>
       </c>
@@ -8013,7 +8019,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>426</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>429</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>432</v>
       </c>
@@ -8046,7 +8052,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>435</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>438</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>440</v>
       </c>
@@ -8073,7 +8079,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>442</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>444</v>
       </c>
@@ -8089,7 +8095,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>446</v>
       </c>
@@ -8097,7 +8103,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>448</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>450</v>
       </c>
@@ -8113,7 +8119,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>452</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>454</v>
       </c>
@@ -8129,7 +8135,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>456</v>
       </c>
@@ -8137,7 +8143,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>458</v>
       </c>
@@ -8145,7 +8151,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>460</v>
       </c>
@@ -8153,7 +8159,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>462</v>
       </c>
@@ -8161,7 +8167,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>464</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>466</v>
       </c>
@@ -8177,7 +8183,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>468</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>472</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>473</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>474</v>
       </c>
@@ -8212,7 +8218,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>475</v>
       </c>
@@ -8221,6 +8227,14 @@
       </c>
       <c r="D197" s="2" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/data/cci/cci-product.xlsx
+++ b/data/cci/cci-product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\AppData\Roaming\MobaXterm\slash\RemoteFiles\264094_5_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E2C577A2-6DCC-4863-B9A9-FA02136E6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2CED3B9-5691-489C-A84F-6D9D802D9705}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8698D110-CEA0-44F5-A4A0-4B424D64BB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="484">
   <si>
     <t>URI</t>
   </si>
@@ -1466,6 +1466,12 @@
   </si>
   <si>
     <t>prod_iasiMopittLatmos1M</t>
+  </si>
+  <si>
+    <t>prod_slstrS3</t>
+  </si>
+  <si>
+    <t>SLSTR_S3</t>
   </si>
 </sst>
 </file>
@@ -2084,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
-  <dimension ref="A1:AMC198"/>
+  <dimension ref="A1:AMC199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8237,6 +8243,14 @@
         <v>480</v>
       </c>
     </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.143700787401575" bottom="1.143700787401575" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
